--- a/RoadMap/Map1.xlsx
+++ b/RoadMap/Map1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\修正対応済\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E363D-CC39-4EFC-B3A0-BCAFA077F545}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC4EE0-5380-4161-B90B-EE39E50B77AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{99EB3D0C-887C-41D2-BB99-250F31F62ED7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="105">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="1"/>
@@ -977,6 +977,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>E_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Sj</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1016,6 +1020,34 @@
   </si>
   <si>
     <t>NL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>De</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1891,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08577888-9322-497A-9063-50A0AE909049}">
-  <dimension ref="A1:Q295"/>
+  <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1949,7 +1981,7 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1975,7 +2007,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1999,7 +2031,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="3">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2023,7 +2055,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2047,7 +2079,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2071,7 +2103,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2095,7 +2127,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2123,7 +2155,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2147,7 +2179,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2171,7 +2203,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="3">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2195,7 +2227,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2219,7 +2251,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2243,7 +2275,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2267,7 +2299,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2295,7 +2327,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3">
+      <c r="A16" s="41">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2319,7 +2351,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="3">
+      <c r="A17" s="41">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2343,7 +2375,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="3">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2367,7 +2399,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="3">
+      <c r="A19" s="41">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2391,7 +2423,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3">
+      <c r="A20" s="41">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2415,7 +2447,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2439,7 +2471,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="3">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2467,7 +2499,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3">
+      <c r="A23" s="41">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2491,7 +2523,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="3">
+      <c r="A24" s="41">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2515,7 +2547,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="3">
+      <c r="A25" s="41">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2539,7 +2571,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="3">
+      <c r="A26" s="41">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2563,7 +2595,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="3">
+      <c r="A27" s="41">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2587,7 +2619,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="3">
+      <c r="A28" s="41">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -2611,7 +2643,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="3">
+      <c r="A29" s="41">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2643,7 +2675,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="3">
+      <c r="A30" s="41">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2667,7 +2699,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="3">
+      <c r="A31" s="41">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2691,7 +2723,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="3">
+      <c r="A32" s="41">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2715,7 +2747,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="3">
+      <c r="A33" s="41">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2739,7 +2771,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="3">
+      <c r="A34" s="41">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -2763,7 +2795,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="3">
+      <c r="A35" s="41">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2787,7 +2819,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="3">
+      <c r="A36" s="41">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2815,7 +2847,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="3">
+      <c r="A37" s="41">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2839,7 +2871,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="3">
+      <c r="A38" s="41">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2863,7 +2895,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="3">
+      <c r="A39" s="41">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2887,7 +2919,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="3">
+      <c r="A40" s="41">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -2911,7 +2943,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="3">
+      <c r="A41" s="41">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2935,7 +2967,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="3">
+      <c r="A42" s="41">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2967,7 +2999,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="3">
+      <c r="A43" s="41">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2978,7 +3010,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="3">
+      <c r="A44" s="41">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3002,7 +3034,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="3">
+      <c r="A45" s="41">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -3026,7 +3058,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="3">
+      <c r="A46" s="41">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -3050,7 +3082,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="3">
+      <c r="A47" s="41">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3082,7 +3114,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="3">
+      <c r="A48" s="41">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -3093,7 +3125,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="3">
+      <c r="A49" s="41">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -3117,7 +3149,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="3">
+      <c r="A50" s="41">
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3141,7 +3173,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="3">
+      <c r="A51" s="41">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3165,7 +3197,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="3">
+      <c r="A52" s="41">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -3197,7 +3229,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="3">
+      <c r="A53" s="41">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3221,7 +3253,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="3">
+      <c r="A54" s="41">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -3245,7 +3277,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="3">
+      <c r="A55" s="41">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -3269,7 +3301,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="3">
+      <c r="A56" s="41">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -3280,7 +3312,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="3">
+      <c r="A57" s="41">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -3312,7 +3344,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="3">
+      <c r="A58" s="41">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -3336,7 +3368,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="3">
+      <c r="A59" s="41">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3360,7 +3392,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="3">
+      <c r="A60" s="41">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -3371,7 +3403,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="3">
+      <c r="A61" s="41">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -3382,7 +3414,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="3">
+      <c r="A62" s="41">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3411,7 +3443,7 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="3">
+      <c r="A63" s="41">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -3442,7 +3474,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="3">
+      <c r="A64" s="41">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -3473,7 +3505,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="3">
+      <c r="A65" s="41">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3504,7 +3536,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="3">
+      <c r="A66" s="41">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -3535,7 +3567,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="3">
+      <c r="A67" s="41">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -3566,7 +3598,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="3">
+      <c r="A68" s="41">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3597,7 +3629,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="3">
+      <c r="A69" s="41">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -3621,7 +3653,7 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="3">
+      <c r="A70" s="41">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -3645,7 +3677,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="3">
+      <c r="A71" s="41">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3669,7 +3701,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="3">
+      <c r="A72" s="41">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -3693,7 +3725,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="3">
+      <c r="A73" s="41">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -3717,7 +3749,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="3">
+      <c r="A74" s="41">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -3741,7 +3773,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="3">
+      <c r="A75" s="41">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -3759,7 +3791,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="3">
+      <c r="A76" s="41">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -3788,7 +3820,7 @@
       </c>
     </row>
     <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="3">
+      <c r="A77" s="41">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -3812,7 +3844,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="3">
+      <c r="A78" s="41">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -3840,7 +3872,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="3">
+      <c r="A79" s="41">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -3864,7 +3896,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="3">
+      <c r="A80" s="41">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -3888,7 +3920,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="3">
+      <c r="A81" s="41">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -3912,7 +3944,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="3">
+      <c r="A82" s="41">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -3936,7 +3968,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="3">
+      <c r="A83" s="41">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -3954,7 +3986,7 @@
       </c>
     </row>
     <row r="84" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="3">
+      <c r="A84" s="41">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -3971,7 +4003,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="3">
+      <c r="A85" s="41">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -4007,7 +4039,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="3">
+      <c r="A86" s="41">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -4031,7 +4063,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="3">
+      <c r="A87" s="41">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -4059,7 +4091,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="3">
+      <c r="A88" s="41">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -4083,7 +4115,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="3">
+      <c r="A89" s="41">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -4107,7 +4139,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="3">
+      <c r="A90" s="41">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -4131,7 +4163,7 @@
       </c>
     </row>
     <row r="91" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="3">
+      <c r="A91" s="41">
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -4142,7 +4174,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="3">
+      <c r="A92" s="41">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4153,7 +4185,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="3">
+      <c r="A93" s="41">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -4187,7 +4219,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="3">
+      <c r="A94" s="41">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -4206,7 +4238,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="3">
+      <c r="A95" s="41">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -4238,7 +4270,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="3">
+      <c r="A96" s="41">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -4262,7 +4294,7 @@
       </c>
     </row>
     <row r="97" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="3">
+      <c r="A97" s="41">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -4286,11 +4318,11 @@
       </c>
     </row>
     <row r="98" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="3">
+      <c r="A98" s="41">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="10"/>
@@ -4306,15 +4338,15 @@
       <c r="N98" s="5"/>
       <c r="O98" s="13"/>
       <c r="P98" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="3">
+      <c r="A99" s="41">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="10"/>
@@ -4330,131 +4362,131 @@
       <c r="N99" s="5"/>
       <c r="O99" s="13"/>
       <c r="P99" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="3">
+      <c r="A100" s="41">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="13"/>
       <c r="P100" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="3">
+      <c r="A101" s="41">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I101" t="s">
+        <v>104</v>
+      </c>
+      <c r="P101" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="41">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I102" t="s">
         <v>68</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J102" t="s">
         <v>68</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K102" t="s">
         <v>68</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L102" t="s">
         <v>68</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M102" t="s">
         <v>68</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N102" t="s">
         <v>68</v>
       </c>
-      <c r="P101" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="3">
-        <v>101</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="13"/>
       <c r="P102" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="3">
+      <c r="A103" s="41">
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="41">
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="13" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P103" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="3">
-        <v>103</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="13"/>
       <c r="P104" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="3">
+      <c r="A105" s="41">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="10"/>
@@ -4470,15 +4502,15 @@
       <c r="N105" s="5"/>
       <c r="O105" s="13"/>
       <c r="P105" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="3">
+      <c r="A106" s="41">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="10"/>
@@ -4494,15 +4526,15 @@
       <c r="N106" s="5"/>
       <c r="O106" s="13"/>
       <c r="P106" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="3">
+      <c r="A107" s="41">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="10"/>
@@ -4518,15 +4550,15 @@
       <c r="N107" s="5"/>
       <c r="O107" s="13"/>
       <c r="P107" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A108" s="3">
+      <c r="A108" s="41">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="10"/>
@@ -4542,32 +4574,22 @@
       <c r="N108" s="5"/>
       <c r="O108" s="13"/>
       <c r="P108" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A109" s="3">
+      <c r="A109" s="41">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -4576,115 +4598,125 @@
       <c r="N109" s="5"/>
       <c r="O109" s="13"/>
       <c r="P109" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="3">
+      <c r="A110" s="41">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
       <c r="N110" s="5"/>
       <c r="O110" s="13"/>
       <c r="P110" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A111" s="3">
+      <c r="A111" s="41">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="13"/>
       <c r="P111" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A112" s="3">
+      <c r="A112" s="41">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
       <c r="O112" s="13"/>
       <c r="P112" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A113" s="3">
+      <c r="A113" s="41">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="P113" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A114" s="3">
+      <c r="A114" s="41">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -4700,15 +4732,15 @@
       <c r="N114" s="10"/>
       <c r="O114" s="13"/>
       <c r="P114" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A115" s="3">
+      <c r="A115" s="41">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
@@ -4724,15 +4756,15 @@
       <c r="N115" s="10"/>
       <c r="O115" s="13"/>
       <c r="P115" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A116" s="3">
+      <c r="A116" s="41">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -4748,49 +4780,39 @@
       <c r="N116" s="10"/>
       <c r="O116" s="13"/>
       <c r="P116" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="3">
+      <c r="A117" s="41">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K117" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
       <c r="L117" s="10"/>
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="13"/>
       <c r="P117" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A118" s="3">
+      <c r="A118" s="41">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -4806,43 +4828,49 @@
       <c r="N118" s="10"/>
       <c r="O118" s="13"/>
       <c r="P118" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A119" s="3">
+      <c r="A119" s="41">
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
-      <c r="O119" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="13"/>
       <c r="P119" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A120" s="3">
+      <c r="A120" s="41">
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -4858,39 +4886,43 @@
       <c r="N120" s="10"/>
       <c r="O120" s="13"/>
       <c r="P120" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="3">
+      <c r="A121" s="41">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="P121" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A122" s="3">
+      <c r="A122" s="41">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -4906,15 +4938,15 @@
       <c r="N122" s="10"/>
       <c r="O122" s="13"/>
       <c r="P122" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A123" s="3">
+      <c r="A123" s="41">
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -4930,15 +4962,15 @@
       <c r="N123" s="10"/>
       <c r="O123" s="13"/>
       <c r="P123" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A124" s="3">
+      <c r="A124" s="41">
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -4954,38 +4986,39 @@
       <c r="N124" s="10"/>
       <c r="O124" s="13"/>
       <c r="P124" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A125" s="3">
+      <c r="A125" s="41">
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>68</v>
-      </c>
-      <c r="H125" t="s">
-        <v>68</v>
-      </c>
-      <c r="I125" t="s">
-        <v>68</v>
-      </c>
-      <c r="J125" t="s">
-        <v>68</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="13"/>
       <c r="P125" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A126" s="3">
+      <c r="A126" s="41">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -5001,164 +5034,186 @@
       <c r="N126" s="10"/>
       <c r="O126" s="13"/>
       <c r="P126" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A127" s="3">
+      <c r="A127" s="41">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="13"/>
       <c r="P127" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A128" s="3">
+      <c r="A128" s="41">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="G128" t="s">
+        <v>68</v>
+      </c>
+      <c r="H128" t="s">
+        <v>68</v>
+      </c>
+      <c r="I128" t="s">
+        <v>68</v>
+      </c>
+      <c r="J128" t="s">
+        <v>68</v>
+      </c>
       <c r="P128" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A129" s="3">
+      <c r="A129" s="41">
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
       <c r="O129" s="13"/>
       <c r="P129" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A130" s="3">
+      <c r="A130" s="41">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="P130" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A131" s="3">
+      <c r="A131" s="41">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="13"/>
       <c r="P131" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A132" s="3">
+      <c r="A132" s="41">
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="13"/>
       <c r="P132" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A133" s="3">
+      <c r="A133" s="41">
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" t="s">
-        <v>68</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="13"/>
       <c r="P133" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A134" s="3">
+      <c r="A134" s="41">
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -5174,149 +5229,164 @@
       <c r="N134" s="10"/>
       <c r="O134" s="13"/>
       <c r="P134" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A135" s="3">
+      <c r="A135" s="41">
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="13"/>
+      <c r="P135" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="41">
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P136" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="41">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H137" t="s">
+        <v>68</v>
+      </c>
+      <c r="P137" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="41">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="41">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="11"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
-      <c r="N135" s="11"/>
-      <c r="O135" s="13" t="s">
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P135" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A136" s="3">
-        <v>135</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A137" s="3">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P137" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A138" s="3">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P138" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="3">
-        <v>138</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="P139" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A140" s="3">
+      <c r="A140" s="41">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="13"/>
       <c r="P140" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A141" s="3">
+      <c r="A141" s="41">
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C141" s="10"/>
-      <c r="D141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
-      <c r="K141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="N141" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O141" s="13"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
       <c r="P141" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A142" s="3">
+      <c r="A142" s="41">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -5330,100 +5400,108 @@
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
-      <c r="O142" s="13"/>
+      <c r="O142" s="10"/>
       <c r="P142" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A143" s="3">
+      <c r="A143" s="41">
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
       <c r="P143" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A144" s="3">
+      <c r="A144" s="41">
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="13"/>
+        <v>104</v>
+      </c>
       <c r="P144" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A145" s="3">
+      <c r="A145" s="41">
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="13"/>
+        <v>104</v>
+      </c>
       <c r="P145" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A146" s="3">
+      <c r="A146" s="41">
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
+      <c r="K146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N146" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="O146" s="13"/>
       <c r="P146" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A147" s="3">
+      <c r="A147" s="41">
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -5432,48 +5510,44 @@
       <c r="N147" s="10"/>
       <c r="O147" s="13"/>
       <c r="P147" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A148" s="3">
+      <c r="A148" s="41">
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="P148" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A149" s="3">
+      <c r="A149" s="41">
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" s="10"/>
+        <v>104</v>
+      </c>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -5482,165 +5556,150 @@
       <c r="N149" s="10"/>
       <c r="O149" s="13"/>
       <c r="P149" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A150" s="3">
+      <c r="A150" s="41">
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10"/>
+      <c r="O150" s="13"/>
       <c r="P150" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A151" s="3">
+      <c r="A151" s="41">
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+      <c r="O151" s="13"/>
       <c r="P151" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A152" s="3">
+      <c r="A152" s="41">
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="13"/>
       <c r="P152" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A153" s="3">
+      <c r="A153" s="41">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="13"/>
       <c r="P153" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A154" s="3">
+      <c r="A154" s="41">
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
+        <v>104</v>
+      </c>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
-      <c r="N154" s="5"/>
+      <c r="N154" s="10"/>
       <c r="O154" s="13"/>
       <c r="P154" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A155" s="3">
+      <c r="A155" s="41">
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
-      <c r="J155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N155" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
       <c r="O155" s="13"/>
       <c r="P155" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A156" s="3">
+      <c r="A156" s="41">
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="13" t="s">
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="10" t="s">
         <v>19</v>
       </c>
       <c r="P156" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5648,7 +5707,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
@@ -5656,15 +5715,8 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
-      <c r="O157" s="13"/>
       <c r="P157" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5672,7 +5724,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
@@ -5680,15 +5732,8 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="13"/>
       <c r="P158" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5696,25 +5741,23 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C159" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C159" s="5"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G159" s="10"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="10"/>
       <c r="L159" s="10"/>
       <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
+      <c r="N159" s="5"/>
       <c r="O159" s="13"/>
       <c r="P159" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5722,23 +5765,33 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
-      <c r="N160" s="10"/>
+      <c r="J160" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L160" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N160" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="O160" s="13"/>
       <c r="P160" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5746,7 +5799,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -5754,23 +5807,27 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="10"/>
-      <c r="N161" s="10"/>
-      <c r="O161" s="13"/>
+      <c r="I161" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="P161" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A162" s="41">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -5786,21 +5843,19 @@
       <c r="N162" s="10"/>
       <c r="O162" s="13"/>
       <c r="P162" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A163" s="41">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -5812,23 +5867,23 @@
       <c r="N163" s="10"/>
       <c r="O163" s="13"/>
       <c r="P163" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A164" s="41">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
-      <c r="F164" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
@@ -5838,15 +5893,15 @@
       <c r="N164" s="10"/>
       <c r="O164" s="13"/>
       <c r="P164" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A165" s="41">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -5862,15 +5917,15 @@
       <c r="N165" s="10"/>
       <c r="O165" s="13"/>
       <c r="P165" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A166" s="41">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -5886,15 +5941,15 @@
       <c r="N166" s="10"/>
       <c r="O166" s="13"/>
       <c r="P166" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A167" s="41">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -5910,19 +5965,21 @@
       <c r="N167" s="10"/>
       <c r="O167" s="13"/>
       <c r="P167" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A168" s="41">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
+      <c r="E168" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
@@ -5934,20 +5991,22 @@
       <c r="N168" s="10"/>
       <c r="O168" s="13"/>
       <c r="P168" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A169" s="41">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
+      <c r="F169" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
@@ -5958,23 +6017,19 @@
       <c r="N169" s="10"/>
       <c r="O169" s="13"/>
       <c r="P169" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A170" s="41">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C170" s="10"/>
-      <c r="D170" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
@@ -5986,15 +6041,15 @@
       <c r="N170" s="10"/>
       <c r="O170" s="13"/>
       <c r="P170" s="9" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A171" s="41">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -6014,11 +6069,11 @@
       </c>
     </row>
     <row r="172" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A172" s="41">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -6038,11 +6093,11 @@
       </c>
     </row>
     <row r="173" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A173" s="41">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -6062,11 +6117,11 @@
       </c>
     </row>
     <row r="174" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A174" s="41">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -6086,17 +6141,19 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A175" s="41">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
@@ -6112,11 +6169,11 @@
       </c>
     </row>
     <row r="176" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A176" s="41">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -6136,16 +6193,14 @@
       </c>
     </row>
     <row r="177" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A177" s="41">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C177" s="10"/>
-      <c r="D177" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
@@ -6162,11 +6217,11 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A178" s="41">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -6186,17 +6241,15 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A179" s="41">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
@@ -6212,13 +6265,15 @@
       </c>
     </row>
     <row r="180" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A180" s="41">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
@@ -6236,18 +6291,16 @@
       </c>
     </row>
     <row r="181" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A181" s="41">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
-      <c r="F181" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
@@ -6262,14 +6315,16 @@
       </c>
     </row>
     <row r="182" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A182" s="41">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
+      <c r="D182" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
@@ -6286,19 +6341,17 @@
       </c>
     </row>
     <row r="183" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A183" s="41">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G183" s="10"/>
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
       <c r="J183" s="10"/>
@@ -6312,15 +6365,17 @@
       </c>
     </row>
     <row r="184" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A184" s="41">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
+      <c r="E184" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
@@ -6336,20 +6391,18 @@
       </c>
     </row>
     <row r="185" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A185" s="41">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
-      <c r="H185" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H185" s="10"/>
       <c r="I185" s="10"/>
       <c r="J185" s="10"/>
       <c r="K185" s="10"/>
@@ -6362,16 +6415,18 @@
       </c>
     </row>
     <row r="186" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A186" s="41">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
+      <c r="F186" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
@@ -6386,11 +6441,11 @@
       </c>
     </row>
     <row r="187" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A187" s="41">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -6410,17 +6465,19 @@
       </c>
     </row>
     <row r="188" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A188" s="41">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="G188" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
@@ -6434,23 +6491,19 @@
       </c>
     </row>
     <row r="189" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A189" s="41">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C189" s="10"/>
-      <c r="D189" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
       <c r="J189" s="10"/>
       <c r="K189" s="10"/>
       <c r="L189" s="10"/>
@@ -6462,18 +6515,20 @@
       </c>
     </row>
     <row r="190" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A190" s="41">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
+      <c r="H190" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="I190" s="10"/>
       <c r="J190" s="10"/>
       <c r="K190" s="10"/>
@@ -6486,11 +6541,11 @@
       </c>
     </row>
     <row r="191" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A191" s="41">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -6510,11 +6565,11 @@
       </c>
     </row>
     <row r="192" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A192" s="41">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -6534,11 +6589,11 @@
       </c>
     </row>
     <row r="193" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A193" s="41">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -6546,9 +6601,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
-      <c r="I193" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="I193" s="10"/>
       <c r="J193" s="10"/>
       <c r="K193" s="10"/>
       <c r="L193" s="10"/>
@@ -6560,19 +6613,24 @@
       </c>
     </row>
     <row r="194" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A194" s="41">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
+      <c r="D194" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J194" s="10"/>
       <c r="K194" s="10"/>
       <c r="L194" s="10"/>
       <c r="M194" s="10"/>
@@ -6583,11 +6641,11 @@
       </c>
     </row>
     <row r="195" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A195" s="41">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -6607,11 +6665,11 @@
       </c>
     </row>
     <row r="196" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A196" s="41">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -6631,11 +6689,11 @@
       </c>
     </row>
     <row r="197" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A197" s="41">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
@@ -6655,11 +6713,11 @@
       </c>
     </row>
     <row r="198" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A198" s="41">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
@@ -6667,7 +6725,9 @@
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
+      <c r="I198" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="J198" s="10"/>
       <c r="K198" s="10"/>
       <c r="L198" s="10"/>
@@ -6679,11 +6739,11 @@
       </c>
     </row>
     <row r="199" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A199" s="41">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
@@ -6692,24 +6752,21 @@
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
       <c r="K199" s="10"/>
       <c r="L199" s="10"/>
       <c r="M199" s="10"/>
-      <c r="N199" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="N199" s="10"/>
       <c r="O199" s="13"/>
       <c r="P199" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A200" s="41">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
@@ -6729,11 +6786,11 @@
       </c>
     </row>
     <row r="201" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A201" s="41">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
@@ -6744,9 +6801,7 @@
       <c r="I201" s="10"/>
       <c r="J201" s="10"/>
       <c r="K201" s="10"/>
-      <c r="L201" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L201" s="10"/>
       <c r="M201" s="10"/>
       <c r="N201" s="10"/>
       <c r="O201" s="13"/>
@@ -6755,11 +6810,11 @@
       </c>
     </row>
     <row r="202" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A202" s="41">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -6779,7 +6834,7 @@
       </c>
     </row>
     <row r="203" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A203" s="41">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
       <c r="B203" s="8" t="s">
@@ -6792,20 +6847,18 @@
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
-      <c r="J203" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J203" s="10"/>
       <c r="K203" s="10"/>
       <c r="L203" s="10"/>
       <c r="M203" s="10"/>
       <c r="N203" s="10"/>
-      <c r="O203" s="10"/>
+      <c r="O203" s="13"/>
       <c r="P203" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A204" s="41">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
       <c r="B204" s="8" t="s">
@@ -6822,14 +6875,16 @@
       <c r="K204" s="10"/>
       <c r="L204" s="10"/>
       <c r="M204" s="10"/>
-      <c r="N204" s="10"/>
+      <c r="N204" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="O204" s="13"/>
       <c r="P204" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A205" s="41">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
       <c r="B205" s="8" t="s">
@@ -6840,9 +6895,7 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
-      <c r="H205" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H205" s="10"/>
       <c r="I205" s="10"/>
       <c r="J205" s="10"/>
       <c r="K205" s="10"/>
@@ -6855,7 +6908,7 @@
       </c>
     </row>
     <row r="206" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A206" s="41">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
       <c r="B206" s="8" t="s">
@@ -6870,7 +6923,9 @@
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
       <c r="K206" s="10"/>
-      <c r="L206" s="10"/>
+      <c r="L206" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="M206" s="10"/>
       <c r="N206" s="10"/>
       <c r="O206" s="13"/>
@@ -6879,7 +6934,7 @@
       </c>
     </row>
     <row r="207" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A207" s="41">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
       <c r="B207" s="8" t="s">
@@ -6888,9 +6943,7 @@
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="E207" s="10"/>
-      <c r="F207" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F207" s="10"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
@@ -6905,7 +6958,7 @@
       </c>
     </row>
     <row r="208" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A208" s="41">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
       <c r="B208" s="8" t="s">
@@ -6918,18 +6971,20 @@
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
       <c r="I208" s="10"/>
-      <c r="J208" s="10"/>
+      <c r="J208" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
       <c r="M208" s="10"/>
       <c r="N208" s="10"/>
-      <c r="O208" s="13"/>
+      <c r="O208" s="10"/>
       <c r="P208" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A209" s="41">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
       <c r="B209" s="8" t="s">
@@ -6953,7 +7008,7 @@
       </c>
     </row>
     <row r="210" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A210" s="41">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
       <c r="B210" s="8" t="s">
@@ -6964,24 +7019,22 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
-      <c r="L210" s="11"/>
-      <c r="M210" s="11"/>
-      <c r="N210" s="11"/>
-      <c r="O210" s="13" t="s">
+      <c r="H210" s="10" t="s">
         <v>95</v>
       </c>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="13"/>
       <c r="P210" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A211" s="41">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="8" t="s">
@@ -7005,7 +7058,7 @@
       </c>
     </row>
     <row r="212" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A212" s="41">
+      <c r="A212" s="3">
         <v>211</v>
       </c>
       <c r="B212" s="8" t="s">
@@ -7013,10 +7066,10 @@
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
-      <c r="E212" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
@@ -7031,7 +7084,7 @@
       </c>
     </row>
     <row r="213" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A213" s="41">
+      <c r="A213" s="3">
         <v>212</v>
       </c>
       <c r="B213" s="8" t="s">
@@ -7055,7 +7108,7 @@
       </c>
     </row>
     <row r="214" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A214" s="41">
+      <c r="A214" s="3">
         <v>213</v>
       </c>
       <c r="B214" s="8" t="s">
@@ -7079,7 +7132,7 @@
       </c>
     </row>
     <row r="215" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A215" s="41">
+      <c r="A215" s="3">
         <v>214</v>
       </c>
       <c r="B215" s="8" t="s">
@@ -7089,25 +7142,25 @@
       <c r="D215" s="10"/>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
-      <c r="G215" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H215" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10"/>
-      <c r="K215" s="10"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="13"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="11"/>
+      <c r="O215" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="P215" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A216" s="41">
+      <c r="A216" s="3">
         <v>215</v>
       </c>
       <c r="B216" s="8" t="s">
@@ -7131,7 +7184,7 @@
       </c>
     </row>
     <row r="217" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A217" s="41">
+      <c r="A217" s="3">
         <v>216</v>
       </c>
       <c r="B217" s="8" t="s">
@@ -7139,7 +7192,9 @@
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
+      <c r="E217" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
@@ -7155,7 +7210,7 @@
       </c>
     </row>
     <row r="218" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A218" s="41">
+      <c r="A218" s="3">
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
@@ -7168,12 +7223,8 @@
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
-      <c r="J218" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K218" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
       <c r="L218" s="10"/>
       <c r="M218" s="10"/>
       <c r="N218" s="10"/>
@@ -7183,7 +7234,7 @@
       </c>
     </row>
     <row r="219" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A219" s="41">
+      <c r="A219" s="3">
         <v>218</v>
       </c>
       <c r="B219" s="8" t="s">
@@ -7207,13 +7258,24 @@
       </c>
     </row>
     <row r="220" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A220" s="41">
+      <c r="A220" s="3">
         <v>219</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H220" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
@@ -7224,19 +7286,20 @@
       </c>
     </row>
     <row r="221" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A221" s="41">
+      <c r="A221" s="3">
         <v>220</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C221" s="10"/>
-      <c r="G221" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H221" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
       <c r="M221" s="10"/>
@@ -7247,7 +7310,7 @@
       </c>
     </row>
     <row r="222" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A222" s="41">
+      <c r="A222" s="3">
         <v>221</v>
       </c>
       <c r="B222" s="8" t="s">
@@ -7271,7 +7334,7 @@
       </c>
     </row>
     <row r="223" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A223" s="41">
+      <c r="A223" s="3">
         <v>222</v>
       </c>
       <c r="B223" s="8" t="s">
@@ -7284,8 +7347,12 @@
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
-      <c r="J223" s="10"/>
-      <c r="K223" s="10"/>
+      <c r="J223" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K223" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="L223" s="10"/>
       <c r="M223" s="10"/>
       <c r="N223" s="10"/>
@@ -7295,7 +7362,7 @@
       </c>
     </row>
     <row r="224" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A224" s="41">
+      <c r="A224" s="3">
         <v>223</v>
       </c>
       <c r="B224" s="8" t="s">
@@ -7308,12 +7375,8 @@
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
       <c r="I224" s="10"/>
-      <c r="J224" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K224" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
       <c r="L224" s="10"/>
       <c r="M224" s="10"/>
       <c r="N224" s="10"/>
@@ -7323,20 +7386,13 @@
       </c>
     </row>
     <row r="225" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A225" s="41">
+      <c r="A225" s="3">
         <v>224</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10"/>
-      <c r="J225" s="10"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
@@ -7347,20 +7403,19 @@
       </c>
     </row>
     <row r="226" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A226" s="41">
+      <c r="A226" s="3">
         <v>225</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="10"/>
-      <c r="J226" s="10"/>
+      <c r="G226" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
       <c r="M226" s="10"/>
@@ -7371,7 +7426,7 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A227" s="41">
+      <c r="A227" s="3">
         <v>226</v>
       </c>
       <c r="B227" s="8" t="s">
@@ -7381,12 +7436,8 @@
       <c r="D227" s="10"/>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
-      <c r="G227" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H227" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
       <c r="I227" s="10"/>
       <c r="J227" s="10"/>
       <c r="K227" s="10"/>
@@ -7399,7 +7450,7 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A228" s="41">
+      <c r="A228" s="3">
         <v>227</v>
       </c>
       <c r="B228" s="8" t="s">
@@ -7423,7 +7474,7 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A229" s="41">
+      <c r="A229" s="3">
         <v>228</v>
       </c>
       <c r="B229" s="8" t="s">
@@ -7436,8 +7487,12 @@
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
-      <c r="J229" s="10"/>
-      <c r="K229" s="10"/>
+      <c r="J229" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K229" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="L229" s="10"/>
       <c r="M229" s="10"/>
       <c r="N229" s="10"/>
@@ -7447,7 +7502,7 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A230" s="41">
+      <c r="A230" s="3">
         <v>229</v>
       </c>
       <c r="B230" s="8" t="s">
@@ -7460,12 +7515,8 @@
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
       <c r="I230" s="10"/>
-      <c r="J230" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K230" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
       <c r="L230" s="10"/>
       <c r="M230" s="10"/>
       <c r="N230" s="10"/>
@@ -7475,7 +7526,7 @@
       </c>
     </row>
     <row r="231" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A231" s="41">
+      <c r="A231" s="3">
         <v>230</v>
       </c>
       <c r="B231" s="8" t="s">
@@ -7499,7 +7550,7 @@
       </c>
     </row>
     <row r="232" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A232" s="41">
+      <c r="A232" s="3">
         <v>231</v>
       </c>
       <c r="B232" s="8" t="s">
@@ -7509,8 +7560,12 @@
       <c r="D232" s="10"/>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
+      <c r="G232" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H232" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="I232" s="10"/>
       <c r="J232" s="10"/>
       <c r="K232" s="10"/>
@@ -7523,7 +7578,7 @@
       </c>
     </row>
     <row r="233" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A233" s="41">
+      <c r="A233" s="3">
         <v>232</v>
       </c>
       <c r="B233" s="8" t="s">
@@ -7547,7 +7602,7 @@
       </c>
     </row>
     <row r="234" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A234" s="41">
+      <c r="A234" s="3">
         <v>233</v>
       </c>
       <c r="B234" s="8" t="s">
@@ -7571,23 +7626,25 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A235" s="41">
+      <c r="A235" s="3">
         <v>234</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C235" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="C235" s="10"/>
       <c r="D235" s="10"/>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-      <c r="K235" s="10"/>
+      <c r="J235" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K235" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="L235" s="10"/>
       <c r="M235" s="10"/>
       <c r="N235" s="10"/>
@@ -7597,7 +7654,7 @@
       </c>
     </row>
     <row r="236" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A236" s="41">
+      <c r="A236" s="3">
         <v>235</v>
       </c>
       <c r="B236" s="8" t="s">
@@ -7621,16 +7678,14 @@
       </c>
     </row>
     <row r="237" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A237" s="41">
+      <c r="A237" s="3">
         <v>236</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C237" s="10"/>
-      <c r="D237" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="D237" s="10"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
@@ -7647,7 +7702,7 @@
       </c>
     </row>
     <row r="238" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A238" s="41">
+      <c r="A238" s="3">
         <v>237</v>
       </c>
       <c r="B238" s="8" t="s">
@@ -7661,21 +7716,17 @@
       <c r="H238" s="10"/>
       <c r="I238" s="10"/>
       <c r="J238" s="10"/>
-      <c r="K238" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L238" s="11"/>
-      <c r="M238" s="11"/>
-      <c r="N238" s="11"/>
-      <c r="O238" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="K238" s="10"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="13"/>
       <c r="P238" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A239" s="41">
+      <c r="A239" s="3">
         <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
@@ -7683,9 +7734,7 @@
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
-      <c r="E239" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
       <c r="H239" s="10"/>
@@ -7701,13 +7750,15 @@
       </c>
     </row>
     <row r="240" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A240" s="41">
+      <c r="A240" s="3">
         <v>239</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C240" s="10"/>
+      <c r="C240" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="D240" s="10"/>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
@@ -7725,7 +7776,7 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A241" s="41">
+      <c r="A241" s="3">
         <v>240</v>
       </c>
       <c r="B241" s="8" t="s">
@@ -7734,9 +7785,7 @@
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
       <c r="E241" s="10"/>
-      <c r="F241" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F241" s="10"/>
       <c r="G241" s="10"/>
       <c r="H241" s="10"/>
       <c r="I241" s="10"/>
@@ -7751,14 +7800,16 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A242" s="41">
+      <c r="A242" s="3">
         <v>241</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C242" s="10"/>
-      <c r="D242" s="10"/>
+      <c r="D242" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
@@ -7775,7 +7826,7 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A243" s="41">
+      <c r="A243" s="3">
         <v>242</v>
       </c>
       <c r="B243" s="8" t="s">
@@ -7785,23 +7836,25 @@
       <c r="D243" s="10"/>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
-      <c r="G243" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G243" s="10"/>
       <c r="H243" s="10"/>
       <c r="I243" s="10"/>
       <c r="J243" s="10"/>
-      <c r="K243" s="10"/>
-      <c r="L243" s="10"/>
-      <c r="M243" s="10"/>
-      <c r="N243" s="10"/>
-      <c r="O243" s="13"/>
+      <c r="K243" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L243" s="11"/>
+      <c r="M243" s="11"/>
+      <c r="N243" s="11"/>
+      <c r="O243" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="P243" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A244" s="41">
+      <c r="A244" s="3">
         <v>243</v>
       </c>
       <c r="B244" s="8" t="s">
@@ -7809,7 +7862,9 @@
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
-      <c r="E244" s="10"/>
+      <c r="E244" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F244" s="10"/>
       <c r="G244" s="10"/>
       <c r="H244" s="10"/>
@@ -7825,7 +7880,7 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A245" s="41">
+      <c r="A245" s="3">
         <v>244</v>
       </c>
       <c r="B245" s="8" t="s">
@@ -7836,9 +7891,7 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
-      <c r="H245" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H245" s="10"/>
       <c r="I245" s="10"/>
       <c r="J245" s="10"/>
       <c r="K245" s="10"/>
@@ -7851,7 +7904,7 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A246" s="41">
+      <c r="A246" s="3">
         <v>245</v>
       </c>
       <c r="B246" s="8" t="s">
@@ -7860,7 +7913,9 @@
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
       <c r="E246" s="10"/>
-      <c r="F246" s="10"/>
+      <c r="F246" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="G246" s="10"/>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
@@ -7875,7 +7930,7 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A247" s="41">
+      <c r="A247" s="3">
         <v>246</v>
       </c>
       <c r="B247" s="8" t="s">
@@ -7887,9 +7942,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
-      <c r="I247" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="I247" s="10"/>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
@@ -7901,7 +7954,7 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A248" s="41">
+      <c r="A248" s="3">
         <v>247</v>
       </c>
       <c r="B248" s="8" t="s">
@@ -7911,7 +7964,9 @@
       <c r="D248" s="10"/>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
+      <c r="G248" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="H248" s="10"/>
       <c r="I248" s="10"/>
       <c r="J248" s="10"/>
@@ -7925,7 +7980,7 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A249" s="41">
+      <c r="A249" s="3">
         <v>248</v>
       </c>
       <c r="B249" s="8" t="s">
@@ -7949,7 +8004,7 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A250" s="41">
+      <c r="A250" s="3">
         <v>249</v>
       </c>
       <c r="B250" s="8" t="s">
@@ -7960,7 +8015,9 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
-      <c r="H250" s="10"/>
+      <c r="H250" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="I250" s="10"/>
       <c r="J250" s="10"/>
       <c r="K250" s="10"/>
@@ -7973,21 +8030,17 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A251" s="41">
+      <c r="A251" s="3">
         <v>250</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C251" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
       <c r="J251" s="10"/>
@@ -8001,7 +8054,7 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A252" s="41">
+      <c r="A252" s="3">
         <v>251</v>
       </c>
       <c r="B252" s="8" t="s">
@@ -8013,7 +8066,9 @@
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
-      <c r="I252" s="10"/>
+      <c r="I252" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="J252" s="10"/>
       <c r="K252" s="10"/>
       <c r="L252" s="10"/>
@@ -8025,7 +8080,7 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A253" s="41">
+      <c r="A253" s="3">
         <v>252</v>
       </c>
       <c r="B253" s="8" t="s">
@@ -8042,16 +8097,14 @@
       <c r="K253" s="10"/>
       <c r="L253" s="10"/>
       <c r="M253" s="10"/>
-      <c r="N253" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="N253" s="10"/>
       <c r="O253" s="13"/>
       <c r="P253" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A254" s="41">
+      <c r="A254" s="3">
         <v>253</v>
       </c>
       <c r="B254" s="8" t="s">
@@ -8066,9 +8119,7 @@
       <c r="I254" s="10"/>
       <c r="J254" s="10"/>
       <c r="K254" s="10"/>
-      <c r="L254" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="L254" s="10"/>
       <c r="M254" s="10"/>
       <c r="N254" s="10"/>
       <c r="O254" s="13"/>
@@ -8077,7 +8128,7 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A255" s="41">
+      <c r="A255" s="3">
         <v>254</v>
       </c>
       <c r="B255" s="8" t="s">
@@ -8090,9 +8141,7 @@
       <c r="G255" s="10"/>
       <c r="H255" s="10"/>
       <c r="I255" s="10"/>
-      <c r="J255" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J255" s="10"/>
       <c r="K255" s="10"/>
       <c r="L255" s="10"/>
       <c r="M255" s="10"/>
@@ -8103,20 +8152,22 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A256" s="41">
+      <c r="A256" s="3">
         <v>255</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10"/>
-      <c r="G256" s="10"/>
-      <c r="H256" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="C256" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H256" s="10"/>
       <c r="I256" s="10"/>
       <c r="J256" s="10"/>
       <c r="K256" s="10"/>
@@ -8129,7 +8180,7 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A257" s="41">
+      <c r="A257" s="3">
         <v>256</v>
       </c>
       <c r="B257" s="8" t="s">
@@ -8147,15 +8198,13 @@
       <c r="L257" s="10"/>
       <c r="M257" s="10"/>
       <c r="N257" s="10"/>
-      <c r="O257" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="O257" s="13"/>
       <c r="P257" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A258" s="41">
+      <c r="A258" s="3">
         <v>257</v>
       </c>
       <c r="B258" s="8" t="s">
@@ -8171,17 +8220,17 @@
       <c r="J258" s="10"/>
       <c r="K258" s="10"/>
       <c r="L258" s="10"/>
-      <c r="M258" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="O258" s="13"/>
       <c r="P258" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A259" s="41">
+      <c r="A259" s="3">
         <v>258</v>
       </c>
       <c r="B259" s="8" t="s">
@@ -8195,10 +8244,10 @@
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
       <c r="J259" s="10"/>
-      <c r="K259" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L259" s="10"/>
+      <c r="K259" s="10"/>
+      <c r="L259" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="M259" s="10"/>
       <c r="N259" s="10"/>
       <c r="O259" s="13"/>
@@ -8207,7 +8256,7 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A260" s="41">
+      <c r="A260" s="3">
         <v>259</v>
       </c>
       <c r="B260" s="8" t="s">
@@ -8219,10 +8268,10 @@
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
       <c r="H260" s="10"/>
-      <c r="I260" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="K260" s="10"/>
       <c r="L260" s="10"/>
       <c r="M260" s="10"/>
@@ -8233,7 +8282,7 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A261" s="41">
+      <c r="A261" s="3">
         <v>260</v>
       </c>
       <c r="B261" s="8" t="s">
@@ -8243,10 +8292,10 @@
       <c r="D261" s="10"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H261" s="10"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="I261" s="10"/>
       <c r="J261" s="10"/>
       <c r="K261" s="10"/>
@@ -8259,7 +8308,7 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A262" s="41">
+      <c r="A262" s="3">
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
@@ -8277,13 +8326,15 @@
       <c r="L262" s="10"/>
       <c r="M262" s="10"/>
       <c r="N262" s="10"/>
-      <c r="O262" s="13"/>
+      <c r="O262" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="P262" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A263" s="41">
+      <c r="A263" s="3">
         <v>262</v>
       </c>
       <c r="B263" s="8" t="s">
@@ -8299,7 +8350,9 @@
       <c r="J263" s="10"/>
       <c r="K263" s="10"/>
       <c r="L263" s="10"/>
-      <c r="M263" s="10"/>
+      <c r="M263" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="N263" s="10"/>
       <c r="O263" s="13"/>
       <c r="P263" s="9" t="s">
@@ -8307,7 +8360,7 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A264" s="41">
+      <c r="A264" s="3">
         <v>263</v>
       </c>
       <c r="B264" s="8" t="s">
@@ -8321,7 +8374,9 @@
       <c r="H264" s="10"/>
       <c r="I264" s="10"/>
       <c r="J264" s="10"/>
-      <c r="K264" s="10"/>
+      <c r="K264" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="L264" s="10"/>
       <c r="M264" s="10"/>
       <c r="N264" s="10"/>
@@ -8331,7 +8386,7 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A265" s="41">
+      <c r="A265" s="3">
         <v>264</v>
       </c>
       <c r="B265" s="8" t="s">
@@ -8339,13 +8394,13 @@
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
-      <c r="E265" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
       <c r="H265" s="10"/>
-      <c r="I265" s="10"/>
+      <c r="I265" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="J265" s="10"/>
       <c r="K265" s="10"/>
       <c r="L265" s="10"/>
@@ -8357,7 +8412,7 @@
       </c>
     </row>
     <row r="266" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A266" s="41">
+      <c r="A266" s="3">
         <v>265</v>
       </c>
       <c r="B266" s="8" t="s">
@@ -8367,7 +8422,9 @@
       <c r="D266" s="10"/>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
-      <c r="G266" s="10"/>
+      <c r="G266" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="H266" s="10"/>
       <c r="I266" s="10"/>
       <c r="J266" s="10"/>
@@ -8381,7 +8438,7 @@
       </c>
     </row>
     <row r="267" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A267" s="41">
+      <c r="A267" s="3">
         <v>266</v>
       </c>
       <c r="B267" s="8" t="s">
@@ -8390,9 +8447,7 @@
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
       <c r="E267" s="10"/>
-      <c r="F267" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F267" s="10"/>
       <c r="G267" s="10"/>
       <c r="H267" s="10"/>
       <c r="I267" s="10"/>
@@ -8407,7 +8462,7 @@
       </c>
     </row>
     <row r="268" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A268" s="41">
+      <c r="A268" s="3">
         <v>267</v>
       </c>
       <c r="B268" s="8" t="s">
@@ -8431,7 +8486,7 @@
       </c>
     </row>
     <row r="269" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A269" s="41">
+      <c r="A269" s="3">
         <v>268</v>
       </c>
       <c r="B269" s="8" t="s">
@@ -8441,9 +8496,7 @@
       <c r="D269" s="10"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
-      <c r="G269" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G269" s="10"/>
       <c r="H269" s="10"/>
       <c r="I269" s="10"/>
       <c r="J269" s="10"/>
@@ -8457,7 +8510,7 @@
       </c>
     </row>
     <row r="270" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A270" s="41">
+      <c r="A270" s="3">
         <v>269</v>
       </c>
       <c r="B270" s="8" t="s">
@@ -8465,7 +8518,9 @@
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
-      <c r="E270" s="10"/>
+      <c r="E270" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
       <c r="H270" s="10"/>
@@ -8481,7 +8536,7 @@
       </c>
     </row>
     <row r="271" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A271" s="41">
+      <c r="A271" s="3">
         <v>270</v>
       </c>
       <c r="B271" s="8" t="s">
@@ -8492,9 +8547,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
-      <c r="H271" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H271" s="10"/>
       <c r="I271" s="10"/>
       <c r="J271" s="10"/>
       <c r="K271" s="10"/>
@@ -8507,7 +8560,7 @@
       </c>
     </row>
     <row r="272" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A272" s="41">
+      <c r="A272" s="3">
         <v>271</v>
       </c>
       <c r="B272" s="8" t="s">
@@ -8516,7 +8569,9 @@
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
-      <c r="F272" s="10"/>
+      <c r="F272" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="G272" s="10"/>
       <c r="H272" s="10"/>
       <c r="I272" s="10"/>
@@ -8531,7 +8586,7 @@
       </c>
     </row>
     <row r="273" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A273" s="41">
+      <c r="A273" s="3">
         <v>272</v>
       </c>
       <c r="B273" s="8" t="s">
@@ -8543,9 +8598,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
       <c r="H273" s="10"/>
-      <c r="I273" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="I273" s="10"/>
       <c r="J273" s="10"/>
       <c r="K273" s="10"/>
       <c r="L273" s="10"/>
@@ -8557,7 +8610,7 @@
       </c>
     </row>
     <row r="274" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A274" s="41">
+      <c r="A274" s="3">
         <v>273</v>
       </c>
       <c r="B274" s="8" t="s">
@@ -8567,7 +8620,9 @@
       <c r="D274" s="10"/>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
-      <c r="G274" s="10"/>
+      <c r="G274" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
       <c r="J274" s="10"/>
@@ -8581,7 +8636,7 @@
       </c>
     </row>
     <row r="275" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A275" s="41">
+      <c r="A275" s="3">
         <v>274</v>
       </c>
       <c r="B275" s="8" t="s">
@@ -8594,9 +8649,7 @@
       <c r="G275" s="10"/>
       <c r="H275" s="10"/>
       <c r="I275" s="10"/>
-      <c r="J275" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="J275" s="10"/>
       <c r="K275" s="10"/>
       <c r="L275" s="10"/>
       <c r="M275" s="10"/>
@@ -8607,7 +8660,7 @@
       </c>
     </row>
     <row r="276" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A276" s="41">
+      <c r="A276" s="3">
         <v>275</v>
       </c>
       <c r="B276" s="8" t="s">
@@ -8618,7 +8671,9 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10"/>
-      <c r="H276" s="10"/>
+      <c r="H276" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="I276" s="10"/>
       <c r="J276" s="10"/>
       <c r="K276" s="10"/>
@@ -8631,7 +8686,7 @@
       </c>
     </row>
     <row r="277" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A277" s="41">
+      <c r="A277" s="3">
         <v>276</v>
       </c>
       <c r="B277" s="8" t="s">
@@ -8643,9 +8698,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="10"/>
       <c r="H277" s="10"/>
-      <c r="I277" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="I277" s="10"/>
       <c r="J277" s="10"/>
       <c r="K277" s="10"/>
       <c r="L277" s="10"/>
@@ -8657,7 +8710,7 @@
       </c>
     </row>
     <row r="278" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A278" s="41">
+      <c r="A278" s="3">
         <v>277</v>
       </c>
       <c r="B278" s="8" t="s">
@@ -8669,7 +8722,9 @@
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
       <c r="H278" s="10"/>
-      <c r="I278" s="10"/>
+      <c r="I278" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="J278" s="10"/>
       <c r="K278" s="10"/>
       <c r="L278" s="10"/>
@@ -8681,7 +8736,7 @@
       </c>
     </row>
     <row r="279" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A279" s="41">
+      <c r="A279" s="3">
         <v>278</v>
       </c>
       <c r="B279" s="8" t="s">
@@ -8692,9 +8747,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
-      <c r="H279" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H279" s="10"/>
       <c r="I279" s="10"/>
       <c r="J279" s="10"/>
       <c r="K279" s="10"/>
@@ -8707,7 +8760,7 @@
       </c>
     </row>
     <row r="280" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A280" s="41">
+      <c r="A280" s="3">
         <v>279</v>
       </c>
       <c r="B280" s="8" t="s">
@@ -8720,7 +8773,9 @@
       <c r="G280" s="10"/>
       <c r="H280" s="10"/>
       <c r="I280" s="10"/>
-      <c r="J280" s="10"/>
+      <c r="J280" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="K280" s="10"/>
       <c r="L280" s="10"/>
       <c r="M280" s="10"/>
@@ -8731,7 +8786,7 @@
       </c>
     </row>
     <row r="281" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A281" s="41">
+      <c r="A281" s="3">
         <v>280</v>
       </c>
       <c r="B281" s="8" t="s">
@@ -8741,9 +8796,7 @@
       <c r="D281" s="10"/>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
-      <c r="G281" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="G281" s="10"/>
       <c r="H281" s="10"/>
       <c r="I281" s="10"/>
       <c r="J281" s="10"/>
@@ -8757,7 +8810,7 @@
       </c>
     </row>
     <row r="282" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A282" s="41">
+      <c r="A282" s="3">
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
@@ -8769,23 +8822,21 @@
       <c r="F282" s="10"/>
       <c r="G282" s="10"/>
       <c r="H282" s="10"/>
-      <c r="I282" s="10"/>
+      <c r="I282" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="J282" s="10"/>
-      <c r="K282" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L282" s="11"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="11"/>
-      <c r="O282" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="K282" s="10"/>
+      <c r="L282" s="10"/>
+      <c r="M282" s="10"/>
+      <c r="N282" s="10"/>
+      <c r="O282" s="13"/>
       <c r="P282" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A283" s="41">
+      <c r="A283" s="3">
         <v>282</v>
       </c>
       <c r="B283" s="8" t="s">
@@ -8794,9 +8845,7 @@
       <c r="C283" s="10"/>
       <c r="D283" s="10"/>
       <c r="E283" s="10"/>
-      <c r="F283" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F283" s="10"/>
       <c r="G283" s="10"/>
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
@@ -8811,7 +8860,7 @@
       </c>
     </row>
     <row r="284" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A284" s="41">
+      <c r="A284" s="3">
         <v>283</v>
       </c>
       <c r="B284" s="8" t="s">
@@ -8822,7 +8871,9 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
+      <c r="H284" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="I284" s="10"/>
       <c r="J284" s="10"/>
       <c r="K284" s="10"/>
@@ -8835,7 +8886,7 @@
       </c>
     </row>
     <row r="285" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A285" s="41">
+      <c r="A285" s="3">
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
@@ -8843,9 +8894,7 @@
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
-      <c r="E285" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
       <c r="H285" s="10"/>
@@ -8861,7 +8910,7 @@
       </c>
     </row>
     <row r="286" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A286" s="41">
+      <c r="A286" s="3">
         <v>285</v>
       </c>
       <c r="B286" s="8" t="s">
@@ -8871,7 +8920,9 @@
       <c r="D286" s="10"/>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
-      <c r="G286" s="10"/>
+      <c r="G286" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
       <c r="J286" s="10"/>
@@ -8885,7 +8936,7 @@
       </c>
     </row>
     <row r="287" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A287" s="41">
+      <c r="A287" s="3">
         <v>286</v>
       </c>
       <c r="B287" s="8" t="s">
@@ -8899,17 +8950,21 @@
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
-      <c r="K287" s="10"/>
-      <c r="L287" s="10"/>
-      <c r="M287" s="10"/>
-      <c r="N287" s="10"/>
-      <c r="O287" s="13"/>
+      <c r="K287" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="P287" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A288" s="41">
+      <c r="A288" s="3">
         <v>287</v>
       </c>
       <c r="B288" s="8" t="s">
@@ -8918,7 +8973,9 @@
       <c r="C288" s="10"/>
       <c r="D288" s="10"/>
       <c r="E288" s="10"/>
-      <c r="F288" s="10"/>
+      <c r="F288" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="G288" s="10"/>
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
@@ -8933,7 +8990,7 @@
       </c>
     </row>
     <row r="289" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A289" s="41">
+      <c r="A289" s="3">
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
@@ -8957,7 +9014,7 @@
       </c>
     </row>
     <row r="290" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A290" s="41">
+      <c r="A290" s="3">
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
@@ -8965,7 +9022,9 @@
       </c>
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
+      <c r="E290" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
       <c r="H290" s="10"/>
@@ -8981,7 +9040,7 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A291" s="41">
+      <c r="A291" s="3">
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
@@ -9005,7 +9064,7 @@
       </c>
     </row>
     <row r="292" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A292" s="41">
+      <c r="A292" s="3">
         <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
@@ -9029,7 +9088,7 @@
       </c>
     </row>
     <row r="293" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A293" s="41">
+      <c r="A293" s="3">
         <v>292</v>
       </c>
       <c r="B293" s="8" t="s">
@@ -9053,50 +9112,172 @@
       </c>
     </row>
     <row r="294" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A294" s="41">
+      <c r="A294" s="3">
         <v>293</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C294" s="10" t="s">
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="10"/>
+      <c r="K294" s="10"/>
+      <c r="L294" s="10"/>
+      <c r="M294" s="10"/>
+      <c r="N294" s="10"/>
+      <c r="O294" s="13"/>
+      <c r="P294" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A295" s="3">
+        <v>294</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="10"/>
+      <c r="G295" s="10"/>
+      <c r="H295" s="10"/>
+      <c r="I295" s="10"/>
+      <c r="J295" s="10"/>
+      <c r="K295" s="10"/>
+      <c r="L295" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M295" s="10"/>
+      <c r="N295" s="10"/>
+      <c r="O295" s="13"/>
+      <c r="P295" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A296" s="3">
+        <v>295</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" s="10"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10"/>
+      <c r="H296" s="10"/>
+      <c r="I296" s="10"/>
+      <c r="J296" s="10"/>
+      <c r="K296" s="10"/>
+      <c r="L296" s="10"/>
+      <c r="M296" s="10"/>
+      <c r="N296" s="10"/>
+      <c r="O296" s="13"/>
+      <c r="P296" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A297" s="3">
+        <v>296</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="10"/>
+      <c r="D297" s="10"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="10"/>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="10"/>
+      <c r="K297" s="10"/>
+      <c r="L297" s="10"/>
+      <c r="M297" s="10"/>
+      <c r="N297" s="10"/>
+      <c r="O297" s="13"/>
+      <c r="P297" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A298" s="3">
+        <v>297</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" s="10"/>
+      <c r="D298" s="10"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="10"/>
+      <c r="G298" s="10"/>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
+      <c r="J298" s="10"/>
+      <c r="K298" s="10"/>
+      <c r="L298" s="10"/>
+      <c r="M298" s="10"/>
+      <c r="N298" s="10"/>
+      <c r="O298" s="13"/>
+      <c r="P298" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A299" s="3">
+        <v>298</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D294" s="15"/>
-      <c r="E294" s="15"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
-      <c r="H294" s="15"/>
-      <c r="I294" s="15"/>
-      <c r="J294" s="15"/>
-      <c r="K294" s="15"/>
-      <c r="L294" s="15"/>
-      <c r="M294" s="15"/>
-      <c r="N294" s="15"/>
-      <c r="O294" s="13" t="s">
+      <c r="D299" s="15"/>
+      <c r="E299" s="15"/>
+      <c r="F299" s="15"/>
+      <c r="G299" s="15"/>
+      <c r="H299" s="15"/>
+      <c r="I299" s="15"/>
+      <c r="J299" s="15"/>
+      <c r="K299" s="15"/>
+      <c r="L299" s="15"/>
+      <c r="M299" s="15"/>
+      <c r="N299" s="15"/>
+      <c r="O299" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P294" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
-      <c r="E295" s="14"/>
-      <c r="F295" s="14"/>
-      <c r="G295" s="14"/>
-      <c r="H295" s="14"/>
-      <c r="I295" s="14"/>
-      <c r="J295" s="14"/>
-      <c r="K295" s="14"/>
-      <c r="L295" s="14"/>
-      <c r="M295" s="14"/>
-      <c r="N295" s="14"/>
-      <c r="O295" s="14"/>
-      <c r="P295" s="14"/>
+      <c r="P299" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="14"/>
+      <c r="F300" s="14"/>
+      <c r="G300" s="14"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="14"/>
+      <c r="L300" s="14"/>
+      <c r="M300" s="14"/>
+      <c r="N300" s="14"/>
+      <c r="O300" s="14"/>
+      <c r="P300" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9181,13 +9362,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="54" x14ac:dyDescent="0.45">
@@ -9247,13 +9428,13 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">

--- a/RoadMap/Map1.xlsx
+++ b/RoadMap/Map1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\修正対応済\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HukuokaGameA\RoadMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC4EE0-5380-4161-B90B-EE39E50B77AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{99EB3D0C-887C-41D2-BB99-250F31F62ED7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="map1" sheetId="1" r:id="rId1"/>
     <sheet name="how to" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="116">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="1"/>
@@ -1059,14 +1058,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N</t>
+    <t>Ns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1922,11 +1965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08577888-9322-497A-9063-50A0AE909049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z294" sqref="Z294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1985,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="5"/>
@@ -2003,16 +2046,14 @@
       <c r="N2" s="14"/>
       <c r="O2" s="6"/>
       <c r="P2" s="7" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2026,17 +2067,13 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2050,17 +2087,13 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2074,17 +2107,13 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2098,17 +2127,13 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2122,17 +2147,13 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2150,17 +2171,13 @@
       <c r="O8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2174,17 +2191,13 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2198,17 +2211,13 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2222,17 +2231,13 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="13"/>
-      <c r="P11" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="41">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2246,17 +2251,13 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="41">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2270,17 +2271,13 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="41">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2294,17 +2291,13 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="41">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2322,17 +2315,13 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="41">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2346,17 +2335,13 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="41">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2370,17 +2355,13 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="41">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2394,17 +2375,13 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="13"/>
-      <c r="P18" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="41">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2418,17 +2395,13 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="13"/>
-      <c r="P19" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="41">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2442,17 +2415,13 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="13"/>
-      <c r="P20" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2466,17 +2435,13 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="13"/>
-      <c r="P21" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2494,17 +2459,13 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="13"/>
-      <c r="P22" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="41">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2518,17 +2479,13 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="13"/>
-      <c r="P23" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="41">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2542,17 +2499,13 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="13"/>
-      <c r="P24" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="41">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2566,17 +2519,13 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="13"/>
-      <c r="P25" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="41">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2590,17 +2539,13 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="41">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2614,17 +2559,13 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="13"/>
-      <c r="P27" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="41">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2638,17 +2579,13 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="41">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
@@ -2670,17 +2607,13 @@
       <c r="O29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="41">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2694,17 +2627,13 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="41">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2718,17 +2647,13 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="13"/>
-      <c r="P31" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="41">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2742,17 +2667,13 @@
       <c r="M32" s="10"/>
       <c r="N32" s="5"/>
       <c r="O32" s="13"/>
-      <c r="P32" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="41">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2766,17 +2687,13 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="13"/>
-      <c r="P33" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="41">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2790,17 +2707,13 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="13"/>
-      <c r="P34" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="41">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2814,17 +2727,13 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="41">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2842,17 +2751,13 @@
       <c r="O36" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="41">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2866,17 +2771,13 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="41">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2890,17 +2791,13 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P38" s="9"/>
     </row>
     <row r="39" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="41">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2914,17 +2811,13 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P39" s="9"/>
     </row>
     <row r="40" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="41">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2938,17 +2831,13 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P40" s="9"/>
     </row>
     <row r="41" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="41">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2962,17 +2851,13 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="12"/>
-      <c r="P41" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P41" s="9"/>
     </row>
     <row r="42" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="41">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
@@ -2994,28 +2879,20 @@
       <c r="O42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P42" s="9"/>
     </row>
     <row r="43" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="41">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P43" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="8"/>
+      <c r="P43" s="9"/>
     </row>
     <row r="44" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="41">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B44" s="8"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -3029,17 +2906,13 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P44" s="9"/>
     </row>
     <row r="45" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="41">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3053,17 +2926,13 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="41">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3077,17 +2946,13 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P46" s="9"/>
     </row>
     <row r="47" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="41">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B47" s="8"/>
       <c r="C47" s="5" t="s">
         <v>18</v>
       </c>
@@ -3109,28 +2974,20 @@
       <c r="O47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P47" s="9"/>
     </row>
     <row r="48" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="41">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B48" s="8"/>
+      <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="41">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B49" s="8"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -3144,17 +3001,13 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="41">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -3168,17 +3021,13 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="12"/>
-      <c r="P50" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P50" s="9"/>
     </row>
     <row r="51" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="41">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3192,17 +3041,13 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P51" s="9"/>
     </row>
     <row r="52" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="41">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B52" s="8"/>
       <c r="C52" s="5" t="s">
         <v>18</v>
       </c>
@@ -3224,17 +3069,13 @@
       <c r="O52" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P52" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P52" s="9"/>
     </row>
     <row r="53" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="41">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3248,17 +3089,13 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P53" s="9"/>
     </row>
     <row r="54" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="41">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B54" s="8"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3272,17 +3109,13 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="10"/>
-      <c r="P54" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P54" s="9"/>
     </row>
     <row r="55" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="41">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3296,28 +3129,20 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="41">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="P56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="41">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
         <v>18</v>
       </c>
@@ -3339,17 +3164,13 @@
       <c r="O57" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P57" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="41">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B58" s="8"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3363,17 +3184,13 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="12"/>
-      <c r="P58" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P58" s="9"/>
     </row>
     <row r="59" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="41">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="5"/>
       <c r="D59" s="10"/>
       <c r="E59" s="5"/>
@@ -3387,39 +3204,27 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="12"/>
-      <c r="P59" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P59" s="9"/>
     </row>
     <row r="60" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="41">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B60" s="8"/>
+      <c r="P60" s="9"/>
     </row>
     <row r="61" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="41">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P61" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B61" s="8"/>
+      <c r="P61" s="9"/>
     </row>
     <row r="62" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="41">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
@@ -3438,17 +3243,13 @@
       <c r="O62" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P62" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P62" s="9"/>
     </row>
     <row r="63" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="41">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="5" t="s">
         <v>18</v>
       </c>
@@ -3469,17 +3270,13 @@
       <c r="O63" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P63" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P63" s="9"/>
     </row>
     <row r="64" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="41">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B64" s="8"/>
       <c r="C64" s="5" t="s">
         <v>18</v>
       </c>
@@ -3500,17 +3297,13 @@
       <c r="O64" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P64" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P64" s="9"/>
     </row>
     <row r="65" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="41">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B65" s="8"/>
       <c r="C65" s="5" t="s">
         <v>18</v>
       </c>
@@ -3531,17 +3324,13 @@
       <c r="O65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P65" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P65" s="9"/>
     </row>
     <row r="66" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="41">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
         <v>18</v>
       </c>
@@ -3562,17 +3351,13 @@
       <c r="O66" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P66" s="9"/>
     </row>
     <row r="67" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="41">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
         <v>18</v>
       </c>
@@ -3593,17 +3378,13 @@
       <c r="O67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P67" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P67" s="9"/>
     </row>
     <row r="68" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="41">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B68" s="8"/>
       <c r="C68" s="5" t="s">
         <v>18</v>
       </c>
@@ -3624,17 +3405,13 @@
       <c r="O68" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P68" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P68" s="9"/>
     </row>
     <row r="69" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="41">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B69" s="8"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3648,17 +3425,13 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="12"/>
-      <c r="P69" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P69" s="9"/>
     </row>
     <row r="70" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="41">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B70" s="8"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -3672,17 +3445,13 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="12"/>
-      <c r="P70" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P70" s="9"/>
     </row>
     <row r="71" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="41">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -3696,17 +3465,13 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="12"/>
-      <c r="P71" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P71" s="9"/>
     </row>
     <row r="72" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="41">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B72" s="8"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -3720,17 +3485,13 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P72" s="9"/>
     </row>
     <row r="73" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="41">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B73" s="8"/>
       <c r="C73" s="5"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -3744,17 +3505,13 @@
       <c r="M73" s="10"/>
       <c r="N73" s="5"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P73" s="9"/>
     </row>
     <row r="74" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="41">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B74" s="8"/>
       <c r="C74" s="5"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
@@ -3768,17 +3525,13 @@
       <c r="M74" s="10"/>
       <c r="N74" s="5"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P74" s="9"/>
     </row>
     <row r="75" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="41">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B75" s="8"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3786,46 +3539,30 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="P75" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="41">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B76" s="8"/>
       <c r="J76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
       <c r="O76" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="P76" s="9"/>
     </row>
     <row r="77" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="41">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B77" s="8"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3839,17 +3576,13 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P77" s="9"/>
     </row>
     <row r="78" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="41">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="5" t="s">
         <v>18</v>
       </c>
@@ -3867,17 +3600,13 @@
       <c r="M78" s="10"/>
       <c r="N78" s="5"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P78" s="9"/>
     </row>
     <row r="79" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="41">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B79" s="8"/>
       <c r="C79" s="5"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -3891,17 +3620,13 @@
       <c r="M79" s="10"/>
       <c r="N79" s="5"/>
       <c r="O79" s="13"/>
-      <c r="P79" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P79" s="9"/>
     </row>
     <row r="80" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="41">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B80" s="8"/>
       <c r="C80" s="5"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -3915,17 +3640,13 @@
       <c r="M80" s="10"/>
       <c r="N80" s="5"/>
       <c r="O80" s="13"/>
-      <c r="P80" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P80" s="9"/>
     </row>
     <row r="81" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="41">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B81" s="8"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3939,17 +3660,13 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="13"/>
-      <c r="P81" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="41">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3963,17 +3680,13 @@
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="13"/>
-      <c r="P82" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P82" s="9"/>
     </row>
     <row r="83" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="41">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B83" s="8"/>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
@@ -3981,51 +3694,35 @@
       <c r="M83" s="10"/>
       <c r="N83" s="5"/>
       <c r="O83" s="13"/>
-      <c r="P83" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P83" s="9"/>
     </row>
     <row r="84" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="41">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B84" s="8"/>
       <c r="C84" s="5"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
-      <c r="P84" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P84" s="9"/>
     </row>
     <row r="85" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="41">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B85" s="8"/>
       <c r="C85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="10" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -4034,17 +3731,13 @@
       <c r="M85" s="10"/>
       <c r="N85" s="5"/>
       <c r="O85" s="13"/>
-      <c r="P85" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P85" s="9"/>
     </row>
     <row r="86" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="41">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B86" s="8"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -4058,17 +3751,13 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="13"/>
-      <c r="P86" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P86" s="9"/>
     </row>
     <row r="87" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="41">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="5"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -4086,17 +3775,13 @@
       <c r="O87" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P87" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P87" s="9"/>
     </row>
     <row r="88" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="41">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B88" s="8"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4110,17 +3795,13 @@
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="13"/>
-      <c r="P88" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P88" s="9"/>
     </row>
     <row r="89" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="41">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B89" s="8"/>
       <c r="C89" s="5"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
@@ -4134,17 +3815,13 @@
       <c r="M89" s="10"/>
       <c r="N89" s="5"/>
       <c r="O89" s="13"/>
-      <c r="P89" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P89" s="9"/>
     </row>
     <row r="90" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="41">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B90" s="8"/>
       <c r="C90" s="5"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
@@ -4158,73 +3835,51 @@
       <c r="M90" s="10"/>
       <c r="N90" s="5"/>
       <c r="O90" s="13"/>
-      <c r="P90" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P90" s="9"/>
     </row>
     <row r="91" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="41">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P91" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B91" s="8"/>
+      <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="41">
         <v>91</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P92" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B92" s="8"/>
+      <c r="P92" s="9"/>
     </row>
     <row r="93" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="41">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B93" s="8"/>
       <c r="C93" s="5"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
       <c r="K93" s="10" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="5"/>
       <c r="O93" s="13"/>
-      <c r="P93" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P93" s="9"/>
     </row>
     <row r="94" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="41">
         <v>93</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B94" s="8"/>
       <c r="C94" s="5"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -4233,17 +3888,13 @@
       <c r="M94" s="10"/>
       <c r="N94" s="5"/>
       <c r="O94" s="13"/>
-      <c r="P94" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P94" s="9"/>
     </row>
     <row r="95" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="41">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B95" s="8"/>
       <c r="C95" s="5" t="s">
         <v>18</v>
       </c>
@@ -4265,17 +3916,13 @@
       <c r="O95" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P95" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P95" s="9"/>
     </row>
     <row r="96" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="41">
         <v>95</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B96" s="8"/>
       <c r="C96" s="5"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -4289,17 +3936,13 @@
       <c r="M96" s="10"/>
       <c r="N96" s="5"/>
       <c r="O96" s="13"/>
-      <c r="P96" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P96" s="9"/>
     </row>
     <row r="97" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="41">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B97" s="8"/>
       <c r="C97" s="5"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -4313,17 +3956,13 @@
       <c r="M97" s="10"/>
       <c r="N97" s="5"/>
       <c r="O97" s="13"/>
-      <c r="P97" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P97" s="9"/>
     </row>
     <row r="98" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="41">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B98" s="8"/>
       <c r="C98" s="5"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -4337,17 +3976,13 @@
       <c r="M98" s="10"/>
       <c r="N98" s="5"/>
       <c r="O98" s="13"/>
-      <c r="P98" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P98" s="9"/>
     </row>
     <row r="99" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="41">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="5"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
@@ -4361,17 +3996,13 @@
       <c r="M99" s="10"/>
       <c r="N99" s="5"/>
       <c r="O99" s="13"/>
-      <c r="P99" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P99" s="9"/>
     </row>
     <row r="100" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="41">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B100" s="8"/>
       <c r="C100" s="5"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
@@ -4385,57 +4016,33 @@
       <c r="M100" s="10"/>
       <c r="N100" s="5"/>
       <c r="O100" s="13"/>
-      <c r="P100" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P100" s="9"/>
     </row>
     <row r="101" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="41">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P101" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B101" s="8"/>
+      <c r="P101" s="9"/>
     </row>
     <row r="102" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="41">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B102" s="8"/>
       <c r="I102" t="s">
-        <v>68</v>
-      </c>
-      <c r="J102" t="s">
-        <v>68</v>
-      </c>
-      <c r="K102" t="s">
-        <v>68</v>
-      </c>
-      <c r="L102" t="s">
-        <v>68</v>
-      </c>
-      <c r="M102" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="N102" t="s">
-        <v>68</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P102" s="9"/>
     </row>
     <row r="103" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="41">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="5"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
@@ -4449,17 +4056,13 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="13"/>
-      <c r="P103" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P103" s="9"/>
     </row>
     <row r="104" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="41">
         <v>103</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B104" s="8"/>
       <c r="C104" s="5" t="s">
         <v>18</v>
       </c>
@@ -4477,17 +4080,13 @@
       <c r="O104" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P104" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P104" s="9"/>
     </row>
     <row r="105" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="41">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B105" s="8"/>
       <c r="C105" s="5"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
@@ -4501,17 +4100,13 @@
       <c r="M105" s="10"/>
       <c r="N105" s="5"/>
       <c r="O105" s="13"/>
-      <c r="P105" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P105" s="9"/>
     </row>
     <row r="106" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="41">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B106" s="8"/>
       <c r="C106" s="5"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
@@ -4525,17 +4120,13 @@
       <c r="M106" s="10"/>
       <c r="N106" s="5"/>
       <c r="O106" s="13"/>
-      <c r="P106" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P106" s="9"/>
     </row>
     <row r="107" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="41">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B107" s="8"/>
       <c r="C107" s="5"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -4549,17 +4140,13 @@
       <c r="M107" s="10"/>
       <c r="N107" s="5"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P107" s="9"/>
     </row>
     <row r="108" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="41">
         <v>107</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B108" s="8"/>
       <c r="C108" s="5"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -4573,17 +4160,13 @@
       <c r="M108" s="10"/>
       <c r="N108" s="5"/>
       <c r="O108" s="13"/>
-      <c r="P108" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P108" s="9"/>
     </row>
     <row r="109" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="41">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B109" s="8"/>
       <c r="C109" s="5"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
@@ -4597,17 +4180,13 @@
       <c r="M109" s="10"/>
       <c r="N109" s="5"/>
       <c r="O109" s="13"/>
-      <c r="P109" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P109" s="9"/>
     </row>
     <row r="110" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="41">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B110" s="8"/>
       <c r="C110" s="5"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
@@ -4621,32 +4200,22 @@
       <c r="M110" s="10"/>
       <c r="N110" s="5"/>
       <c r="O110" s="13"/>
-      <c r="P110" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P110" s="9"/>
     </row>
     <row r="111" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="41">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B111" s="8"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="10" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
@@ -4655,17 +4224,13 @@
       <c r="M111" s="10"/>
       <c r="N111" s="5"/>
       <c r="O111" s="13"/>
-      <c r="P111" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P111" s="9"/>
     </row>
     <row r="112" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="41">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B112" s="8"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4679,17 +4244,13 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="13"/>
-      <c r="P112" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="41">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B113" s="8"/>
       <c r="C113" s="5" t="s">
         <v>18</v>
       </c>
@@ -4707,17 +4268,13 @@
       <c r="O113" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P113" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P113" s="9"/>
     </row>
     <row r="114" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="41">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B114" s="8"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
@@ -4731,17 +4288,13 @@
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="13"/>
-      <c r="P114" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P114" s="9"/>
     </row>
     <row r="115" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="41">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B115" s="8"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
@@ -4755,17 +4308,13 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="13"/>
-      <c r="P115" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P115" s="9"/>
     </row>
     <row r="116" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="41">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B116" s="8"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
@@ -4779,17 +4328,13 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="13"/>
-      <c r="P116" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P116" s="9"/>
     </row>
     <row r="117" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="41">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B117" s="8"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
@@ -4803,17 +4348,13 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="13"/>
-      <c r="P117" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P117" s="9"/>
     </row>
     <row r="118" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="41">
         <v>117</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B118" s="8"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
@@ -4827,51 +4368,37 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="13"/>
-      <c r="P118" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P118" s="9"/>
     </row>
     <row r="119" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="41">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B119" s="8"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
       <c r="K119" s="10" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
       <c r="O119" s="13"/>
-      <c r="P119" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P119" s="9"/>
     </row>
     <row r="120" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="41">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B120" s="8"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
@@ -4885,17 +4412,13 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="13"/>
-      <c r="P120" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P120" s="9"/>
     </row>
     <row r="121" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="41">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B121" s="8"/>
       <c r="C121" s="10" t="s">
         <v>18</v>
       </c>
@@ -4913,17 +4436,13 @@
       <c r="O121" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P121" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A122" s="41">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B122" s="8"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
@@ -4937,17 +4456,13 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="13"/>
-      <c r="P122" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P122" s="9"/>
     </row>
     <row r="123" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="41">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B123" s="8"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
@@ -4961,17 +4476,13 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="13"/>
-      <c r="P123" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P123" s="9"/>
     </row>
     <row r="124" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="41">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B124" s="8"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
@@ -4985,17 +4496,13 @@
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="13"/>
-      <c r="P124" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P124" s="9"/>
     </row>
     <row r="125" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125" s="41">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B125" s="8"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
@@ -5009,17 +4516,13 @@
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
       <c r="O125" s="13"/>
-      <c r="P125" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P125" s="9"/>
     </row>
     <row r="126" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="41">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B126" s="8"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
@@ -5033,17 +4536,13 @@
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
       <c r="O126" s="13"/>
-      <c r="P126" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P126" s="9"/>
     </row>
     <row r="127" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="41">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B127" s="8"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
@@ -5057,40 +4556,26 @@
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
       <c r="O127" s="13"/>
-      <c r="P127" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P127" s="9"/>
     </row>
     <row r="128" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="41">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B128" s="8"/>
       <c r="G128" t="s">
-        <v>68</v>
-      </c>
-      <c r="H128" t="s">
-        <v>68</v>
-      </c>
-      <c r="I128" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="J128" t="s">
-        <v>68</v>
-      </c>
-      <c r="P128" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P128" s="9"/>
     </row>
     <row r="129" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="41">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B129" s="8"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
@@ -5104,17 +4589,13 @@
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="13"/>
-      <c r="P129" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P129" s="9"/>
     </row>
     <row r="130" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="41">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B130" s="8"/>
       <c r="C130" s="10" t="s">
         <v>18</v>
       </c>
@@ -5132,17 +4613,13 @@
       <c r="O130" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P130" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P130" s="9"/>
     </row>
     <row r="131" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="41">
         <v>130</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B131" s="8"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
@@ -5156,17 +4633,13 @@
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="13"/>
-      <c r="P131" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="41">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B132" s="8"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
@@ -5180,17 +4653,13 @@
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="13"/>
-      <c r="P132" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P132" s="9"/>
     </row>
     <row r="133" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="41">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B133" s="8"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
@@ -5204,17 +4673,13 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="13"/>
-      <c r="P133" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P133" s="9"/>
     </row>
     <row r="134" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="41">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B134" s="8"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
@@ -5228,17 +4693,13 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="13"/>
-      <c r="P134" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P134" s="9"/>
     </row>
     <row r="135" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="41">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B135" s="8"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -5252,42 +4713,30 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="O135" s="13"/>
-      <c r="P135" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P135" s="9"/>
     </row>
     <row r="136" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="41">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P136" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B136" s="8"/>
+      <c r="P136" s="9"/>
     </row>
     <row r="137" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="41">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B137" s="8"/>
       <c r="H137" t="s">
         <v>68</v>
       </c>
-      <c r="P137" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P137" s="9"/>
     </row>
     <row r="138" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="41">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B138" s="8"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
@@ -5301,17 +4750,13 @@
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="13"/>
-      <c r="P138" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P138" s="9"/>
     </row>
     <row r="139" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A139" s="41">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B139" s="8"/>
       <c r="C139" s="10" t="s">
         <v>18</v>
       </c>
@@ -5329,17 +4774,13 @@
       <c r="O139" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P139" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P139" s="9"/>
     </row>
     <row r="140" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="41">
         <v>139</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B140" s="8"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
@@ -5353,17 +4794,13 @@
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="13"/>
-      <c r="P140" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P140" s="9"/>
     </row>
     <row r="141" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A141" s="41">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B141" s="8"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
@@ -5377,17 +4814,13 @@
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
-      <c r="P141" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P141" s="9"/>
     </row>
     <row r="142" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A142" s="41">
         <v>141</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B142" s="8"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
@@ -5401,17 +4834,13 @@
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
-      <c r="P142" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P142" s="9"/>
     </row>
     <row r="143" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A143" s="41">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B143" s="8"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
@@ -5425,77 +4854,55 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
-      <c r="P143" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P143" s="9"/>
     </row>
     <row r="144" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A144" s="41">
         <v>143</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P144" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B144" s="8"/>
+      <c r="P144" s="9"/>
     </row>
     <row r="145" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A145" s="41">
         <v>144</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P145" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B145" s="8"/>
+      <c r="P145" s="9"/>
     </row>
     <row r="146" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A146" s="41">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B146" s="8"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E146" s="10"/>
       <c r="F146" s="10" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
       <c r="J146" s="10"/>
       <c r="K146" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L146" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
       <c r="N146" s="10" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="O146" s="13"/>
-      <c r="P146" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P146" s="9"/>
     </row>
     <row r="147" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A147" s="41">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B147" s="8"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -5509,17 +4916,13 @@
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="13"/>
-      <c r="P147" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P147" s="9"/>
     </row>
     <row r="148" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A148" s="41">
         <v>147</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B148" s="8"/>
       <c r="C148" s="10" t="s">
         <v>18</v>
       </c>
@@ -5537,17 +4940,13 @@
       <c r="O148" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P148" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P148" s="9"/>
     </row>
     <row r="149" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A149" s="41">
         <v>148</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B149" s="8"/>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -5555,17 +4954,13 @@
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="13"/>
-      <c r="P149" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P149" s="9"/>
     </row>
     <row r="150" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A150" s="41">
         <v>149</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B150" s="8"/>
       <c r="I150" s="10"/>
       <c r="J150" s="10"/>
       <c r="K150" s="10"/>
@@ -5573,17 +4968,13 @@
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="13"/>
-      <c r="P150" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P150" s="9"/>
     </row>
     <row r="151" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A151" s="41">
         <v>150</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B151" s="8"/>
       <c r="I151" s="10"/>
       <c r="J151" s="10"/>
       <c r="K151" s="10"/>
@@ -5591,17 +4982,13 @@
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="13"/>
-      <c r="P151" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P151" s="9"/>
     </row>
     <row r="152" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A152" s="41">
         <v>151</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B152" s="8"/>
       <c r="I152" s="10"/>
       <c r="J152" s="10"/>
       <c r="K152" s="10"/>
@@ -5609,17 +4996,13 @@
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="13"/>
-      <c r="P152" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P152" s="9"/>
     </row>
     <row r="153" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A153" s="41">
         <v>152</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B153" s="8"/>
       <c r="I153" s="10"/>
       <c r="J153" s="10"/>
       <c r="K153" s="10"/>
@@ -5627,17 +5010,13 @@
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="13"/>
-      <c r="P153" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P153" s="9"/>
     </row>
     <row r="154" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A154" s="41">
         <v>153</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B154" s="8"/>
       <c r="I154" s="10"/>
       <c r="J154" s="10"/>
       <c r="K154" s="10"/>
@@ -5645,29 +5024,21 @@
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="13"/>
-      <c r="P154" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P154" s="9"/>
     </row>
     <row r="155" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A155" s="41">
         <v>154</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B155" s="8"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
       <c r="G155" s="10" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
@@ -5677,17 +5048,13 @@
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="13"/>
-      <c r="P155" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P155" s="9"/>
     </row>
     <row r="156" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A156" s="41">
         <v>155</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B156" s="8"/>
       <c r="C156" s="10" t="s">
         <v>18</v>
       </c>
@@ -5698,51 +5065,39 @@
       <c r="H156" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P156" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P156" s="9"/>
     </row>
     <row r="157" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A157" s="41">
         <v>156</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B157" s="8"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
-      <c r="P157" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P157" s="9"/>
     </row>
     <row r="158" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A158" s="41">
         <v>157</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B158" s="8"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
-      <c r="P158" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P158" s="9"/>
     </row>
     <row r="159" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A159" s="41">
         <v>158</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B159" s="8"/>
       <c r="C159" s="5"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
@@ -5756,17 +5111,13 @@
       <c r="M159" s="10"/>
       <c r="N159" s="5"/>
       <c r="O159" s="13"/>
-      <c r="P159" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P159" s="9"/>
     </row>
     <row r="160" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A160" s="41">
         <v>159</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B160" s="8"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -5775,32 +5126,22 @@
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
       <c r="J160" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K160" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L160" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M160" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
       <c r="N160" s="10" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="O160" s="13"/>
-      <c r="P160" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P160" s="9"/>
     </row>
     <row r="161" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A161" s="41">
         <v>160</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B161" s="8"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
@@ -5818,17 +5159,13 @@
       <c r="O161" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="P161" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P161" s="9"/>
     </row>
     <row r="162" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B162" s="8"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
@@ -5842,17 +5179,13 @@
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
       <c r="O162" s="13"/>
-      <c r="P162" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P162" s="9"/>
     </row>
     <row r="163" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B163" s="8"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
@@ -5866,17 +5199,13 @@
       <c r="M163" s="10"/>
       <c r="N163" s="10"/>
       <c r="O163" s="13"/>
-      <c r="P163" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P163" s="9"/>
     </row>
     <row r="164" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B164" s="8"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
@@ -5892,17 +5221,13 @@
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
       <c r="O164" s="13"/>
-      <c r="P164" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P164" s="9"/>
     </row>
     <row r="165" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B165" s="8"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
@@ -5916,17 +5241,13 @@
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
       <c r="O165" s="13"/>
-      <c r="P165" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P165" s="9"/>
     </row>
     <row r="166" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B166" s="8"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
@@ -5940,17 +5261,13 @@
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="13"/>
-      <c r="P166" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P166" s="9"/>
     </row>
     <row r="167" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B167" s="8"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
@@ -5964,17 +5281,13 @@
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
       <c r="O167" s="13"/>
-      <c r="P167" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P167" s="9"/>
     </row>
     <row r="168" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B168" s="8"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10" t="s">
@@ -5990,17 +5303,13 @@
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="13"/>
-      <c r="P168" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P168" s="9"/>
     </row>
     <row r="169" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B169" s="8"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
@@ -6016,17 +5325,13 @@
       <c r="M169" s="10"/>
       <c r="N169" s="10"/>
       <c r="O169" s="13"/>
-      <c r="P169" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P169" s="9"/>
     </row>
     <row r="170" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B170" s="8"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
@@ -6040,17 +5345,13 @@
       <c r="M170" s="10"/>
       <c r="N170" s="10"/>
       <c r="O170" s="13"/>
-      <c r="P170" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="P170" s="9"/>
     </row>
     <row r="171" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B171" s="8"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
@@ -6064,17 +5365,13 @@
       <c r="M171" s="10"/>
       <c r="N171" s="10"/>
       <c r="O171" s="13"/>
-      <c r="P171" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P171" s="9"/>
     </row>
     <row r="172" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B172" s="8"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
@@ -6088,17 +5385,13 @@
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
       <c r="O172" s="13"/>
-      <c r="P172" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P172" s="9"/>
     </row>
     <row r="173" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B173" s="8"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
@@ -6112,17 +5405,13 @@
       <c r="M173" s="10"/>
       <c r="N173" s="10"/>
       <c r="O173" s="13"/>
-      <c r="P173" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P173" s="9"/>
     </row>
     <row r="174" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B174" s="8"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
@@ -6136,17 +5425,13 @@
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
       <c r="O174" s="13"/>
-      <c r="P174" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P174" s="9"/>
     </row>
     <row r="175" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B175" s="8"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10" t="s">
         <v>88</v>
@@ -6164,17 +5449,13 @@
       <c r="M175" s="10"/>
       <c r="N175" s="10"/>
       <c r="O175" s="13"/>
-      <c r="P175" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P175" s="9"/>
     </row>
     <row r="176" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B176" s="8"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
@@ -6188,17 +5469,13 @@
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
       <c r="O176" s="13"/>
-      <c r="P176" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P176" s="9"/>
     </row>
     <row r="177" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B177" s="8"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
@@ -6212,17 +5489,13 @@
       <c r="M177" s="10"/>
       <c r="N177" s="10"/>
       <c r="O177" s="13"/>
-      <c r="P177" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P177" s="9"/>
     </row>
     <row r="178" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B178" s="8"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="10"/>
@@ -6236,17 +5509,13 @@
       <c r="M178" s="10"/>
       <c r="N178" s="10"/>
       <c r="O178" s="13"/>
-      <c r="P178" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P178" s="9"/>
     </row>
     <row r="179" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B179" s="8"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
@@ -6260,17 +5529,13 @@
       <c r="M179" s="10"/>
       <c r="N179" s="10"/>
       <c r="O179" s="13"/>
-      <c r="P179" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P179" s="9"/>
     </row>
     <row r="180" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B180" s="8"/>
       <c r="C180" s="10" t="s">
         <v>71</v>
       </c>
@@ -6286,17 +5551,13 @@
       <c r="M180" s="10"/>
       <c r="N180" s="10"/>
       <c r="O180" s="13"/>
-      <c r="P180" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P180" s="9"/>
     </row>
     <row r="181" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B181" s="8"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
@@ -6310,17 +5571,13 @@
       <c r="M181" s="10"/>
       <c r="N181" s="10"/>
       <c r="O181" s="13"/>
-      <c r="P181" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P181" s="9"/>
     </row>
     <row r="182" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B182" s="8"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10" t="s">
         <v>71</v>
@@ -6336,17 +5593,13 @@
       <c r="M182" s="10"/>
       <c r="N182" s="10"/>
       <c r="O182" s="13"/>
-      <c r="P182" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P182" s="9"/>
     </row>
     <row r="183" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B183" s="8"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
@@ -6360,17 +5613,13 @@
       <c r="M183" s="10"/>
       <c r="N183" s="10"/>
       <c r="O183" s="13"/>
-      <c r="P183" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P183" s="9"/>
     </row>
     <row r="184" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B184" s="8"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10" t="s">
@@ -6386,17 +5635,13 @@
       <c r="M184" s="10"/>
       <c r="N184" s="10"/>
       <c r="O184" s="13"/>
-      <c r="P184" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P184" s="9"/>
     </row>
     <row r="185" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A185" s="3">
         <v>184</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B185" s="8"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
@@ -6410,17 +5655,13 @@
       <c r="M185" s="10"/>
       <c r="N185" s="10"/>
       <c r="O185" s="13"/>
-      <c r="P185" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P185" s="9"/>
     </row>
     <row r="186" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A186" s="3">
         <v>185</v>
       </c>
-      <c r="B186" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B186" s="8"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
@@ -6436,17 +5677,13 @@
       <c r="M186" s="10"/>
       <c r="N186" s="10"/>
       <c r="O186" s="13"/>
-      <c r="P186" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P186" s="9"/>
     </row>
     <row r="187" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A187" s="3">
         <v>186</v>
       </c>
-      <c r="B187" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B187" s="8"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
@@ -6460,17 +5697,13 @@
       <c r="M187" s="10"/>
       <c r="N187" s="10"/>
       <c r="O187" s="13"/>
-      <c r="P187" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P187" s="9"/>
     </row>
     <row r="188" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B188" s="8"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
@@ -6486,17 +5719,13 @@
       <c r="M188" s="10"/>
       <c r="N188" s="10"/>
       <c r="O188" s="13"/>
-      <c r="P188" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P188" s="9"/>
     </row>
     <row r="189" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A189" s="3">
         <v>188</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B189" s="8"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
@@ -6510,17 +5739,13 @@
       <c r="M189" s="10"/>
       <c r="N189" s="10"/>
       <c r="O189" s="13"/>
-      <c r="P189" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P189" s="9"/>
     </row>
     <row r="190" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B190" s="8"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
@@ -6536,17 +5761,13 @@
       <c r="M190" s="10"/>
       <c r="N190" s="10"/>
       <c r="O190" s="13"/>
-      <c r="P190" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P190" s="9"/>
     </row>
     <row r="191" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A191" s="3">
         <v>190</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B191" s="8"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
@@ -6560,17 +5781,13 @@
       <c r="M191" s="10"/>
       <c r="N191" s="10"/>
       <c r="O191" s="13"/>
-      <c r="P191" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P191" s="9"/>
     </row>
     <row r="192" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B192" s="8"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
@@ -6584,17 +5801,13 @@
       <c r="M192" s="10"/>
       <c r="N192" s="10"/>
       <c r="O192" s="13"/>
-      <c r="P192" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P192" s="9"/>
     </row>
     <row r="193" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A193" s="3">
         <v>192</v>
       </c>
-      <c r="B193" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B193" s="8"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
@@ -6608,17 +5821,13 @@
       <c r="M193" s="10"/>
       <c r="N193" s="10"/>
       <c r="O193" s="13"/>
-      <c r="P193" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P193" s="9"/>
     </row>
     <row r="194" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A194" s="3">
         <v>193</v>
       </c>
-      <c r="B194" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B194" s="8"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10" t="s">
         <v>102</v>
@@ -6636,17 +5845,13 @@
       <c r="M194" s="10"/>
       <c r="N194" s="10"/>
       <c r="O194" s="13"/>
-      <c r="P194" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P194" s="9"/>
     </row>
     <row r="195" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A195" s="3">
         <v>194</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B195" s="8"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
@@ -6660,17 +5865,13 @@
       <c r="M195" s="10"/>
       <c r="N195" s="10"/>
       <c r="O195" s="13"/>
-      <c r="P195" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P195" s="9"/>
     </row>
     <row r="196" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A196" s="3">
         <v>195</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B196" s="8"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
@@ -6684,17 +5885,13 @@
       <c r="M196" s="10"/>
       <c r="N196" s="10"/>
       <c r="O196" s="13"/>
-      <c r="P196" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P196" s="9"/>
     </row>
     <row r="197" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A197" s="3">
         <v>196</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B197" s="8"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
@@ -6708,17 +5905,13 @@
       <c r="M197" s="10"/>
       <c r="N197" s="10"/>
       <c r="O197" s="13"/>
-      <c r="P197" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P197" s="9"/>
     </row>
     <row r="198" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A198" s="3">
         <v>197</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B198" s="8"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
@@ -6734,17 +5927,13 @@
       <c r="M198" s="10"/>
       <c r="N198" s="10"/>
       <c r="O198" s="13"/>
-      <c r="P198" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P198" s="9"/>
     </row>
     <row r="199" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A199" s="3">
         <v>198</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B199" s="8"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
@@ -6757,17 +5946,13 @@
       <c r="M199" s="10"/>
       <c r="N199" s="10"/>
       <c r="O199" s="13"/>
-      <c r="P199" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P199" s="9"/>
     </row>
     <row r="200" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A200" s="3">
         <v>199</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B200" s="8"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
@@ -6781,17 +5966,13 @@
       <c r="M200" s="10"/>
       <c r="N200" s="10"/>
       <c r="O200" s="13"/>
-      <c r="P200" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P200" s="9"/>
     </row>
     <row r="201" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A201" s="3">
         <v>200</v>
       </c>
-      <c r="B201" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B201" s="8"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
@@ -6805,17 +5986,13 @@
       <c r="M201" s="10"/>
       <c r="N201" s="10"/>
       <c r="O201" s="13"/>
-      <c r="P201" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P201" s="9"/>
     </row>
     <row r="202" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A202" s="3">
         <v>201</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B202" s="8"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
       <c r="E202" s="10"/>
@@ -6829,17 +6006,13 @@
       <c r="M202" s="10"/>
       <c r="N202" s="10"/>
       <c r="O202" s="13"/>
-      <c r="P202" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P202" s="9"/>
     </row>
     <row r="203" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A203" s="3">
         <v>202</v>
       </c>
-      <c r="B203" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B203" s="8"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
@@ -6853,17 +6026,13 @@
       <c r="M203" s="10"/>
       <c r="N203" s="10"/>
       <c r="O203" s="13"/>
-      <c r="P203" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P203" s="9"/>
     </row>
     <row r="204" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A204" s="3">
         <v>203</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B204" s="8"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
       <c r="E204" s="10"/>
@@ -6879,17 +6048,13 @@
         <v>95</v>
       </c>
       <c r="O204" s="13"/>
-      <c r="P204" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P204" s="9"/>
     </row>
     <row r="205" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A205" s="3">
         <v>204</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B205" s="8"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
       <c r="E205" s="10"/>
@@ -6903,17 +6068,13 @@
       <c r="M205" s="10"/>
       <c r="N205" s="10"/>
       <c r="O205" s="13"/>
-      <c r="P205" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P205" s="9"/>
     </row>
     <row r="206" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A206" s="3">
         <v>205</v>
       </c>
-      <c r="B206" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B206" s="8"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
       <c r="E206" s="10"/>
@@ -6929,17 +6090,13 @@
       <c r="M206" s="10"/>
       <c r="N206" s="10"/>
       <c r="O206" s="13"/>
-      <c r="P206" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P206" s="9"/>
     </row>
     <row r="207" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A207" s="3">
         <v>206</v>
       </c>
-      <c r="B207" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B207" s="8"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="E207" s="10"/>
@@ -6953,17 +6110,13 @@
       <c r="M207" s="10"/>
       <c r="N207" s="10"/>
       <c r="O207" s="13"/>
-      <c r="P207" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P207" s="9"/>
     </row>
     <row r="208" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A208" s="3">
         <v>207</v>
       </c>
-      <c r="B208" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B208" s="8"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
       <c r="E208" s="10"/>
@@ -6979,17 +6132,13 @@
       <c r="M208" s="10"/>
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
-      <c r="P208" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P208" s="9"/>
     </row>
     <row r="209" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A209" s="3">
         <v>208</v>
       </c>
-      <c r="B209" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B209" s="8"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
       <c r="E209" s="10"/>
@@ -7003,17 +6152,13 @@
       <c r="M209" s="10"/>
       <c r="N209" s="10"/>
       <c r="O209" s="13"/>
-      <c r="P209" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P209" s="9"/>
     </row>
     <row r="210" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A210" s="3">
         <v>209</v>
       </c>
-      <c r="B210" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B210" s="8"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
       <c r="E210" s="10"/>
@@ -7029,17 +6174,13 @@
       <c r="M210" s="10"/>
       <c r="N210" s="10"/>
       <c r="O210" s="13"/>
-      <c r="P210" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P210" s="9"/>
     </row>
     <row r="211" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A211" s="3">
         <v>210</v>
       </c>
-      <c r="B211" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B211" s="8"/>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
       <c r="E211" s="10"/>
@@ -7053,17 +6194,13 @@
       <c r="M211" s="10"/>
       <c r="N211" s="10"/>
       <c r="O211" s="13"/>
-      <c r="P211" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P211" s="9"/>
     </row>
     <row r="212" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A212" s="3">
         <v>211</v>
       </c>
-      <c r="B212" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B212" s="8"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
       <c r="E212" s="10"/>
@@ -7079,17 +6216,13 @@
       <c r="M212" s="10"/>
       <c r="N212" s="10"/>
       <c r="O212" s="13"/>
-      <c r="P212" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P212" s="9"/>
     </row>
     <row r="213" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A213" s="3">
         <v>212</v>
       </c>
-      <c r="B213" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B213" s="8"/>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
       <c r="E213" s="10"/>
@@ -7103,17 +6236,13 @@
       <c r="M213" s="10"/>
       <c r="N213" s="10"/>
       <c r="O213" s="13"/>
-      <c r="P213" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P213" s="9"/>
     </row>
     <row r="214" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A214" s="3">
         <v>213</v>
       </c>
-      <c r="B214" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B214" s="8"/>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
       <c r="E214" s="10"/>
@@ -7127,17 +6256,13 @@
       <c r="M214" s="10"/>
       <c r="N214" s="10"/>
       <c r="O214" s="13"/>
-      <c r="P214" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P214" s="9"/>
     </row>
     <row r="215" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A215" s="3">
         <v>214</v>
       </c>
-      <c r="B215" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B215" s="8"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
       <c r="E215" s="10"/>
@@ -7155,17 +6280,13 @@
       <c r="O215" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="P215" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P215" s="9"/>
     </row>
     <row r="216" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A216" s="3">
         <v>215</v>
       </c>
-      <c r="B216" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B216" s="8"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
       <c r="E216" s="10"/>
@@ -7179,17 +6300,13 @@
       <c r="M216" s="10"/>
       <c r="N216" s="10"/>
       <c r="O216" s="13"/>
-      <c r="P216" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P216" s="9"/>
     </row>
     <row r="217" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A217" s="3">
         <v>216</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B217" s="8"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
       <c r="E217" s="10" t="s">
@@ -7205,17 +6322,13 @@
       <c r="M217" s="10"/>
       <c r="N217" s="10"/>
       <c r="O217" s="13"/>
-      <c r="P217" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P217" s="9"/>
     </row>
     <row r="218" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A218" s="3">
         <v>217</v>
       </c>
-      <c r="B218" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B218" s="8"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
       <c r="E218" s="10"/>
@@ -7229,17 +6342,13 @@
       <c r="M218" s="10"/>
       <c r="N218" s="10"/>
       <c r="O218" s="13"/>
-      <c r="P218" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P218" s="9"/>
     </row>
     <row r="219" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A219" s="3">
         <v>218</v>
       </c>
-      <c r="B219" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B219" s="8"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
       <c r="E219" s="10"/>
@@ -7253,17 +6362,13 @@
       <c r="M219" s="10"/>
       <c r="N219" s="10"/>
       <c r="O219" s="13"/>
-      <c r="P219" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P219" s="9"/>
     </row>
     <row r="220" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A220" s="3">
         <v>219</v>
       </c>
-      <c r="B220" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B220" s="8"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
       <c r="E220" s="10"/>
@@ -7281,17 +6386,13 @@
       <c r="M220" s="10"/>
       <c r="N220" s="10"/>
       <c r="O220" s="13"/>
-      <c r="P220" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P220" s="9"/>
     </row>
     <row r="221" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A221" s="3">
         <v>220</v>
       </c>
-      <c r="B221" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B221" s="8"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
       <c r="E221" s="10"/>
@@ -7305,17 +6406,13 @@
       <c r="M221" s="10"/>
       <c r="N221" s="10"/>
       <c r="O221" s="13"/>
-      <c r="P221" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P221" s="9"/>
     </row>
     <row r="222" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A222" s="3">
         <v>221</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B222" s="8"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
       <c r="E222" s="10"/>
@@ -7329,17 +6426,13 @@
       <c r="M222" s="10"/>
       <c r="N222" s="10"/>
       <c r="O222" s="13"/>
-      <c r="P222" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P222" s="9"/>
     </row>
     <row r="223" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A223" s="3">
         <v>222</v>
       </c>
-      <c r="B223" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B223" s="8"/>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
       <c r="E223" s="10"/>
@@ -7357,17 +6450,13 @@
       <c r="M223" s="10"/>
       <c r="N223" s="10"/>
       <c r="O223" s="13"/>
-      <c r="P223" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P223" s="9"/>
     </row>
     <row r="224" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A224" s="3">
         <v>223</v>
       </c>
-      <c r="B224" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B224" s="8"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
       <c r="E224" s="10"/>
@@ -7381,34 +6470,26 @@
       <c r="M224" s="10"/>
       <c r="N224" s="10"/>
       <c r="O224" s="13"/>
-      <c r="P224" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P224" s="9"/>
     </row>
     <row r="225" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A225" s="3">
         <v>224</v>
       </c>
-      <c r="B225" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B225" s="8"/>
       <c r="C225" s="10"/>
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
       <c r="N225" s="10"/>
       <c r="O225" s="13"/>
-      <c r="P225" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P225" s="9"/>
     </row>
     <row r="226" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A226" s="3">
         <v>225</v>
       </c>
-      <c r="B226" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B226" s="8"/>
       <c r="C226" s="10"/>
       <c r="G226" s="10" t="s">
         <v>97</v>
@@ -7421,17 +6502,13 @@
       <c r="M226" s="10"/>
       <c r="N226" s="10"/>
       <c r="O226" s="13"/>
-      <c r="P226" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P226" s="9"/>
     </row>
     <row r="227" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A227" s="3">
         <v>226</v>
       </c>
-      <c r="B227" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B227" s="8"/>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
       <c r="E227" s="10"/>
@@ -7445,17 +6522,13 @@
       <c r="M227" s="10"/>
       <c r="N227" s="10"/>
       <c r="O227" s="13"/>
-      <c r="P227" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P227" s="9"/>
     </row>
     <row r="228" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A228" s="3">
         <v>227</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B228" s="8"/>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
       <c r="E228" s="10"/>
@@ -7469,17 +6542,13 @@
       <c r="M228" s="10"/>
       <c r="N228" s="10"/>
       <c r="O228" s="13"/>
-      <c r="P228" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P228" s="9"/>
     </row>
     <row r="229" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A229" s="3">
         <v>228</v>
       </c>
-      <c r="B229" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B229" s="8"/>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
       <c r="E229" s="10"/>
@@ -7497,17 +6566,13 @@
       <c r="M229" s="10"/>
       <c r="N229" s="10"/>
       <c r="O229" s="13"/>
-      <c r="P229" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P229" s="9"/>
     </row>
     <row r="230" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A230" s="3">
         <v>229</v>
       </c>
-      <c r="B230" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B230" s="8"/>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
       <c r="E230" s="10"/>
@@ -7521,17 +6586,13 @@
       <c r="M230" s="10"/>
       <c r="N230" s="10"/>
       <c r="O230" s="13"/>
-      <c r="P230" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P230" s="9"/>
     </row>
     <row r="231" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A231" s="3">
         <v>230</v>
       </c>
-      <c r="B231" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B231" s="8"/>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
       <c r="E231" s="10"/>
@@ -7545,17 +6606,13 @@
       <c r="M231" s="10"/>
       <c r="N231" s="10"/>
       <c r="O231" s="13"/>
-      <c r="P231" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P231" s="9"/>
     </row>
     <row r="232" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A232" s="3">
         <v>231</v>
       </c>
-      <c r="B232" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B232" s="8"/>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
       <c r="E232" s="10"/>
@@ -7573,17 +6630,13 @@
       <c r="M232" s="10"/>
       <c r="N232" s="10"/>
       <c r="O232" s="13"/>
-      <c r="P232" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P232" s="9"/>
     </row>
     <row r="233" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A233" s="3">
         <v>232</v>
       </c>
-      <c r="B233" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B233" s="8"/>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
       <c r="E233" s="10"/>
@@ -7597,17 +6650,13 @@
       <c r="M233" s="10"/>
       <c r="N233" s="10"/>
       <c r="O233" s="13"/>
-      <c r="P233" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P233" s="9"/>
     </row>
     <row r="234" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A234" s="3">
         <v>233</v>
       </c>
-      <c r="B234" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B234" s="8"/>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
       <c r="E234" s="10"/>
@@ -7621,17 +6670,13 @@
       <c r="M234" s="10"/>
       <c r="N234" s="10"/>
       <c r="O234" s="13"/>
-      <c r="P234" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P234" s="9"/>
     </row>
     <row r="235" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A235" s="3">
         <v>234</v>
       </c>
-      <c r="B235" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B235" s="8"/>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
       <c r="E235" s="10"/>
@@ -7649,17 +6694,13 @@
       <c r="M235" s="10"/>
       <c r="N235" s="10"/>
       <c r="O235" s="13"/>
-      <c r="P235" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P235" s="9"/>
     </row>
     <row r="236" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A236" s="3">
         <v>235</v>
       </c>
-      <c r="B236" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B236" s="8"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
       <c r="E236" s="10"/>
@@ -7673,17 +6714,13 @@
       <c r="M236" s="10"/>
       <c r="N236" s="10"/>
       <c r="O236" s="13"/>
-      <c r="P236" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P236" s="9"/>
     </row>
     <row r="237" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A237" s="3">
         <v>236</v>
       </c>
-      <c r="B237" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B237" s="8"/>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
       <c r="E237" s="10"/>
@@ -7697,17 +6734,13 @@
       <c r="M237" s="10"/>
       <c r="N237" s="10"/>
       <c r="O237" s="13"/>
-      <c r="P237" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P237" s="9"/>
     </row>
     <row r="238" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A238" s="3">
         <v>237</v>
       </c>
-      <c r="B238" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B238" s="8"/>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
       <c r="E238" s="10"/>
@@ -7721,17 +6754,13 @@
       <c r="M238" s="10"/>
       <c r="N238" s="10"/>
       <c r="O238" s="13"/>
-      <c r="P238" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P238" s="9"/>
     </row>
     <row r="239" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A239" s="3">
         <v>238</v>
       </c>
-      <c r="B239" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B239" s="8"/>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
       <c r="E239" s="10"/>
@@ -7745,17 +6774,13 @@
       <c r="M239" s="10"/>
       <c r="N239" s="10"/>
       <c r="O239" s="13"/>
-      <c r="P239" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P239" s="9"/>
     </row>
     <row r="240" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A240" s="3">
         <v>239</v>
       </c>
-      <c r="B240" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B240" s="8"/>
       <c r="C240" s="10" t="s">
         <v>96</v>
       </c>
@@ -7771,17 +6796,13 @@
       <c r="M240" s="10"/>
       <c r="N240" s="10"/>
       <c r="O240" s="13"/>
-      <c r="P240" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P240" s="9"/>
     </row>
     <row r="241" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A241" s="3">
         <v>240</v>
       </c>
-      <c r="B241" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B241" s="8"/>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
       <c r="E241" s="10"/>
@@ -7795,17 +6816,13 @@
       <c r="M241" s="10"/>
       <c r="N241" s="10"/>
       <c r="O241" s="13"/>
-      <c r="P241" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P241" s="9"/>
     </row>
     <row r="242" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A242" s="3">
         <v>241</v>
       </c>
-      <c r="B242" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B242" s="8"/>
       <c r="C242" s="10"/>
       <c r="D242" s="10" t="s">
         <v>96</v>
@@ -7821,17 +6838,13 @@
       <c r="M242" s="10"/>
       <c r="N242" s="10"/>
       <c r="O242" s="13"/>
-      <c r="P242" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P242" s="9"/>
     </row>
     <row r="243" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A243" s="3">
         <v>242</v>
       </c>
-      <c r="B243" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B243" s="8"/>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
       <c r="E243" s="10"/>
@@ -7849,17 +6862,13 @@
       <c r="O243" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="P243" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P243" s="9"/>
     </row>
     <row r="244" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A244" s="3">
         <v>243</v>
       </c>
-      <c r="B244" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B244" s="8"/>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
       <c r="E244" s="10" t="s">
@@ -7875,17 +6884,13 @@
       <c r="M244" s="10"/>
       <c r="N244" s="10"/>
       <c r="O244" s="13"/>
-      <c r="P244" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P244" s="9"/>
     </row>
     <row r="245" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A245" s="3">
         <v>244</v>
       </c>
-      <c r="B245" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B245" s="8"/>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
       <c r="E245" s="10"/>
@@ -7899,17 +6904,13 @@
       <c r="M245" s="10"/>
       <c r="N245" s="10"/>
       <c r="O245" s="13"/>
-      <c r="P245" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P245" s="9"/>
     </row>
     <row r="246" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A246" s="3">
         <v>245</v>
       </c>
-      <c r="B246" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B246" s="8"/>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
       <c r="E246" s="10"/>
@@ -7925,17 +6926,13 @@
       <c r="M246" s="10"/>
       <c r="N246" s="10"/>
       <c r="O246" s="13"/>
-      <c r="P246" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P246" s="9"/>
     </row>
     <row r="247" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A247" s="3">
         <v>246</v>
       </c>
-      <c r="B247" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B247" s="8"/>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
       <c r="E247" s="10"/>
@@ -7949,17 +6946,13 @@
       <c r="M247" s="10"/>
       <c r="N247" s="10"/>
       <c r="O247" s="13"/>
-      <c r="P247" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P247" s="9"/>
     </row>
     <row r="248" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A248" s="3">
         <v>247</v>
       </c>
-      <c r="B248" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B248" s="8"/>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
       <c r="E248" s="10"/>
@@ -7975,17 +6968,13 @@
       <c r="M248" s="10"/>
       <c r="N248" s="10"/>
       <c r="O248" s="13"/>
-      <c r="P248" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P248" s="9"/>
     </row>
     <row r="249" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A249" s="3">
         <v>248</v>
       </c>
-      <c r="B249" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B249" s="8"/>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
       <c r="E249" s="10"/>
@@ -7999,17 +6988,13 @@
       <c r="M249" s="10"/>
       <c r="N249" s="10"/>
       <c r="O249" s="13"/>
-      <c r="P249" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P249" s="9"/>
     </row>
     <row r="250" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A250" s="3">
         <v>249</v>
       </c>
-      <c r="B250" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B250" s="8"/>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
       <c r="E250" s="10"/>
@@ -8025,17 +7010,13 @@
       <c r="M250" s="10"/>
       <c r="N250" s="10"/>
       <c r="O250" s="13"/>
-      <c r="P250" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P250" s="9"/>
     </row>
     <row r="251" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A251" s="3">
         <v>250</v>
       </c>
-      <c r="B251" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B251" s="8"/>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
@@ -8049,17 +7030,13 @@
       <c r="M251" s="10"/>
       <c r="N251" s="10"/>
       <c r="O251" s="13"/>
-      <c r="P251" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P251" s="9"/>
     </row>
     <row r="252" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A252" s="3">
         <v>251</v>
       </c>
-      <c r="B252" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B252" s="8"/>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
@@ -8075,17 +7052,13 @@
       <c r="M252" s="10"/>
       <c r="N252" s="10"/>
       <c r="O252" s="13"/>
-      <c r="P252" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P252" s="9"/>
     </row>
     <row r="253" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A253" s="3">
         <v>252</v>
       </c>
-      <c r="B253" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B253" s="8"/>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
       <c r="E253" s="10"/>
@@ -8099,17 +7072,13 @@
       <c r="M253" s="10"/>
       <c r="N253" s="10"/>
       <c r="O253" s="13"/>
-      <c r="P253" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P253" s="9"/>
     </row>
     <row r="254" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A254" s="3">
         <v>253</v>
       </c>
-      <c r="B254" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B254" s="8"/>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
       <c r="E254" s="10"/>
@@ -8123,17 +7092,13 @@
       <c r="M254" s="10"/>
       <c r="N254" s="10"/>
       <c r="O254" s="13"/>
-      <c r="P254" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P254" s="9"/>
     </row>
     <row r="255" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A255" s="3">
         <v>254</v>
       </c>
-      <c r="B255" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B255" s="8"/>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
       <c r="E255" s="10"/>
@@ -8147,17 +7112,13 @@
       <c r="M255" s="10"/>
       <c r="N255" s="10"/>
       <c r="O255" s="13"/>
-      <c r="P255" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P255" s="9"/>
     </row>
     <row r="256" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A256" s="3">
         <v>255</v>
       </c>
-      <c r="B256" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B256" s="8"/>
       <c r="C256" s="10" t="s">
         <v>102</v>
       </c>
@@ -8175,17 +7136,13 @@
       <c r="M256" s="10"/>
       <c r="N256" s="10"/>
       <c r="O256" s="13"/>
-      <c r="P256" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P256" s="9"/>
     </row>
     <row r="257" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A257" s="3">
         <v>256</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B257" s="8"/>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
       <c r="E257" s="10"/>
@@ -8199,17 +7156,13 @@
       <c r="M257" s="10"/>
       <c r="N257" s="10"/>
       <c r="O257" s="13"/>
-      <c r="P257" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P257" s="9"/>
     </row>
     <row r="258" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A258" s="3">
         <v>257</v>
       </c>
-      <c r="B258" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B258" s="8"/>
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
       <c r="E258" s="10"/>
@@ -8225,17 +7178,13 @@
         <v>95</v>
       </c>
       <c r="O258" s="13"/>
-      <c r="P258" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P258" s="9"/>
     </row>
     <row r="259" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A259" s="3">
         <v>258</v>
       </c>
-      <c r="B259" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B259" s="8"/>
       <c r="C259" s="10"/>
       <c r="D259" s="10"/>
       <c r="E259" s="10"/>
@@ -8251,17 +7200,13 @@
       <c r="M259" s="10"/>
       <c r="N259" s="10"/>
       <c r="O259" s="13"/>
-      <c r="P259" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P259" s="9"/>
     </row>
     <row r="260" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A260" s="3">
         <v>259</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B260" s="8"/>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
       <c r="E260" s="10"/>
@@ -8277,17 +7222,13 @@
       <c r="M260" s="10"/>
       <c r="N260" s="10"/>
       <c r="O260" s="13"/>
-      <c r="P260" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P260" s="9"/>
     </row>
     <row r="261" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A261" s="3">
         <v>260</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B261" s="8"/>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
       <c r="E261" s="10"/>
@@ -8303,17 +7244,13 @@
       <c r="M261" s="10"/>
       <c r="N261" s="10"/>
       <c r="O261" s="13"/>
-      <c r="P261" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P261" s="9"/>
     </row>
     <row r="262" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A262" s="3">
         <v>261</v>
       </c>
-      <c r="B262" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B262" s="8"/>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
       <c r="E262" s="10"/>
@@ -8329,17 +7266,13 @@
       <c r="O262" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="P262" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P262" s="9"/>
     </row>
     <row r="263" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A263" s="3">
         <v>262</v>
       </c>
-      <c r="B263" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B263" s="8"/>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
       <c r="E263" s="10"/>
@@ -8355,17 +7288,13 @@
       </c>
       <c r="N263" s="10"/>
       <c r="O263" s="13"/>
-      <c r="P263" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P263" s="9"/>
     </row>
     <row r="264" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A264" s="3">
         <v>263</v>
       </c>
-      <c r="B264" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B264" s="8"/>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
       <c r="E264" s="10"/>
@@ -8381,17 +7310,13 @@
       <c r="M264" s="10"/>
       <c r="N264" s="10"/>
       <c r="O264" s="13"/>
-      <c r="P264" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P264" s="9"/>
     </row>
     <row r="265" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A265" s="3">
         <v>264</v>
       </c>
-      <c r="B265" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B265" s="8"/>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
       <c r="E265" s="10"/>
@@ -8407,17 +7332,13 @@
       <c r="M265" s="10"/>
       <c r="N265" s="10"/>
       <c r="O265" s="13"/>
-      <c r="P265" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P265" s="9"/>
     </row>
     <row r="266" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A266" s="3">
         <v>265</v>
       </c>
-      <c r="B266" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B266" s="8"/>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
       <c r="E266" s="10"/>
@@ -8433,17 +7354,13 @@
       <c r="M266" s="10"/>
       <c r="N266" s="10"/>
       <c r="O266" s="13"/>
-      <c r="P266" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P266" s="9"/>
     </row>
     <row r="267" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A267" s="3">
         <v>266</v>
       </c>
-      <c r="B267" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B267" s="8"/>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
       <c r="E267" s="10"/>
@@ -8457,17 +7374,13 @@
       <c r="M267" s="10"/>
       <c r="N267" s="10"/>
       <c r="O267" s="13"/>
-      <c r="P267" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P267" s="9"/>
     </row>
     <row r="268" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A268" s="3">
         <v>267</v>
       </c>
-      <c r="B268" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B268" s="8"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
       <c r="E268" s="10"/>
@@ -8481,17 +7394,13 @@
       <c r="M268" s="10"/>
       <c r="N268" s="10"/>
       <c r="O268" s="13"/>
-      <c r="P268" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P268" s="9"/>
     </row>
     <row r="269" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A269" s="3">
         <v>268</v>
       </c>
-      <c r="B269" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B269" s="8"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
       <c r="E269" s="10"/>
@@ -8505,17 +7414,13 @@
       <c r="M269" s="10"/>
       <c r="N269" s="10"/>
       <c r="O269" s="13"/>
-      <c r="P269" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P269" s="9"/>
     </row>
     <row r="270" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A270" s="3">
         <v>269</v>
       </c>
-      <c r="B270" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B270" s="8"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
       <c r="E270" s="10" t="s">
@@ -8531,17 +7436,13 @@
       <c r="M270" s="10"/>
       <c r="N270" s="10"/>
       <c r="O270" s="13"/>
-      <c r="P270" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P270" s="9"/>
     </row>
     <row r="271" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A271" s="3">
         <v>270</v>
       </c>
-      <c r="B271" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B271" s="8"/>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
       <c r="E271" s="10"/>
@@ -8555,17 +7456,13 @@
       <c r="M271" s="10"/>
       <c r="N271" s="10"/>
       <c r="O271" s="13"/>
-      <c r="P271" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P271" s="9"/>
     </row>
     <row r="272" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A272" s="3">
         <v>271</v>
       </c>
-      <c r="B272" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B272" s="8"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
@@ -8581,17 +7478,13 @@
       <c r="M272" s="10"/>
       <c r="N272" s="10"/>
       <c r="O272" s="13"/>
-      <c r="P272" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P272" s="9"/>
     </row>
     <row r="273" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A273" s="3">
         <v>272</v>
       </c>
-      <c r="B273" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B273" s="8"/>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
       <c r="E273" s="10"/>
@@ -8605,17 +7498,13 @@
       <c r="M273" s="10"/>
       <c r="N273" s="10"/>
       <c r="O273" s="13"/>
-      <c r="P273" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P273" s="9"/>
     </row>
     <row r="274" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A274" s="3">
         <v>273</v>
       </c>
-      <c r="B274" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B274" s="8"/>
       <c r="C274" s="10"/>
       <c r="D274" s="10"/>
       <c r="E274" s="10"/>
@@ -8631,17 +7520,13 @@
       <c r="M274" s="10"/>
       <c r="N274" s="10"/>
       <c r="O274" s="13"/>
-      <c r="P274" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P274" s="9"/>
     </row>
     <row r="275" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A275" s="3">
         <v>274</v>
       </c>
-      <c r="B275" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B275" s="8"/>
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
       <c r="E275" s="10"/>
@@ -8655,17 +7540,13 @@
       <c r="M275" s="10"/>
       <c r="N275" s="10"/>
       <c r="O275" s="13"/>
-      <c r="P275" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P275" s="9"/>
     </row>
     <row r="276" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A276" s="3">
         <v>275</v>
       </c>
-      <c r="B276" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B276" s="8"/>
       <c r="C276" s="10"/>
       <c r="D276" s="10"/>
       <c r="E276" s="10"/>
@@ -8681,17 +7562,13 @@
       <c r="M276" s="10"/>
       <c r="N276" s="10"/>
       <c r="O276" s="13"/>
-      <c r="P276" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P276" s="9"/>
     </row>
     <row r="277" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A277" s="3">
         <v>276</v>
       </c>
-      <c r="B277" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B277" s="8"/>
       <c r="C277" s="10"/>
       <c r="D277" s="10"/>
       <c r="E277" s="10"/>
@@ -8705,17 +7582,13 @@
       <c r="M277" s="10"/>
       <c r="N277" s="10"/>
       <c r="O277" s="13"/>
-      <c r="P277" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P277" s="9"/>
     </row>
     <row r="278" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A278" s="3">
         <v>277</v>
       </c>
-      <c r="B278" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B278" s="8"/>
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
       <c r="E278" s="10"/>
@@ -8731,17 +7604,13 @@
       <c r="M278" s="10"/>
       <c r="N278" s="10"/>
       <c r="O278" s="13"/>
-      <c r="P278" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P278" s="9"/>
     </row>
     <row r="279" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A279" s="3">
         <v>278</v>
       </c>
-      <c r="B279" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B279" s="8"/>
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
       <c r="E279" s="10"/>
@@ -8755,17 +7624,13 @@
       <c r="M279" s="10"/>
       <c r="N279" s="10"/>
       <c r="O279" s="13"/>
-      <c r="P279" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P279" s="9"/>
     </row>
     <row r="280" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A280" s="3">
         <v>279</v>
       </c>
-      <c r="B280" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B280" s="8"/>
       <c r="C280" s="10"/>
       <c r="D280" s="10"/>
       <c r="E280" s="10"/>
@@ -8781,17 +7646,13 @@
       <c r="M280" s="10"/>
       <c r="N280" s="10"/>
       <c r="O280" s="13"/>
-      <c r="P280" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P280" s="9"/>
     </row>
     <row r="281" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A281" s="3">
         <v>280</v>
       </c>
-      <c r="B281" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B281" s="8"/>
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
       <c r="E281" s="10"/>
@@ -8805,17 +7666,13 @@
       <c r="M281" s="10"/>
       <c r="N281" s="10"/>
       <c r="O281" s="13"/>
-      <c r="P281" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P281" s="9"/>
     </row>
     <row r="282" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A282" s="3">
         <v>281</v>
       </c>
-      <c r="B282" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B282" s="8"/>
       <c r="C282" s="10"/>
       <c r="D282" s="10"/>
       <c r="E282" s="10"/>
@@ -8831,17 +7688,13 @@
       <c r="M282" s="10"/>
       <c r="N282" s="10"/>
       <c r="O282" s="13"/>
-      <c r="P282" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P282" s="9"/>
     </row>
     <row r="283" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A283" s="3">
         <v>282</v>
       </c>
-      <c r="B283" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B283" s="8"/>
       <c r="C283" s="10"/>
       <c r="D283" s="10"/>
       <c r="E283" s="10"/>
@@ -8855,17 +7708,13 @@
       <c r="M283" s="10"/>
       <c r="N283" s="10"/>
       <c r="O283" s="13"/>
-      <c r="P283" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P283" s="9"/>
     </row>
     <row r="284" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A284" s="3">
         <v>283</v>
       </c>
-      <c r="B284" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B284" s="8"/>
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
       <c r="E284" s="10"/>
@@ -8881,17 +7730,13 @@
       <c r="M284" s="10"/>
       <c r="N284" s="10"/>
       <c r="O284" s="13"/>
-      <c r="P284" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P284" s="9"/>
     </row>
     <row r="285" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A285" s="3">
         <v>284</v>
       </c>
-      <c r="B285" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B285" s="8"/>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
       <c r="E285" s="10"/>
@@ -8905,17 +7750,13 @@
       <c r="M285" s="10"/>
       <c r="N285" s="10"/>
       <c r="O285" s="13"/>
-      <c r="P285" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P285" s="9"/>
     </row>
     <row r="286" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A286" s="3">
         <v>285</v>
       </c>
-      <c r="B286" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B286" s="8"/>
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
       <c r="E286" s="10"/>
@@ -8931,17 +7772,13 @@
       <c r="M286" s="10"/>
       <c r="N286" s="10"/>
       <c r="O286" s="13"/>
-      <c r="P286" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P286" s="9"/>
     </row>
     <row r="287" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A287" s="3">
         <v>286</v>
       </c>
-      <c r="B287" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B287" s="8"/>
       <c r="C287" s="10"/>
       <c r="D287" s="10"/>
       <c r="E287" s="10"/>
@@ -8959,17 +7796,13 @@
       <c r="O287" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="P287" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P287" s="9"/>
     </row>
     <row r="288" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A288" s="3">
         <v>287</v>
       </c>
-      <c r="B288" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B288" s="8"/>
       <c r="C288" s="10"/>
       <c r="D288" s="10"/>
       <c r="E288" s="10"/>
@@ -8985,17 +7818,13 @@
       <c r="M288" s="10"/>
       <c r="N288" s="10"/>
       <c r="O288" s="13"/>
-      <c r="P288" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P288" s="9"/>
     </row>
     <row r="289" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A289" s="3">
         <v>288</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B289" s="8"/>
       <c r="C289" s="10"/>
       <c r="D289" s="10"/>
       <c r="E289" s="10"/>
@@ -9009,17 +7838,13 @@
       <c r="M289" s="10"/>
       <c r="N289" s="10"/>
       <c r="O289" s="13"/>
-      <c r="P289" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P289" s="9"/>
     </row>
     <row r="290" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A290" s="3">
         <v>289</v>
       </c>
-      <c r="B290" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B290" s="8"/>
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
       <c r="E290" s="10" t="s">
@@ -9035,17 +7860,13 @@
       <c r="M290" s="10"/>
       <c r="N290" s="10"/>
       <c r="O290" s="13"/>
-      <c r="P290" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P290" s="9"/>
     </row>
     <row r="291" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A291" s="3">
         <v>290</v>
       </c>
-      <c r="B291" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B291" s="8"/>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
       <c r="E291" s="10"/>
@@ -9059,17 +7880,13 @@
       <c r="M291" s="10"/>
       <c r="N291" s="10"/>
       <c r="O291" s="13"/>
-      <c r="P291" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P291" s="9"/>
     </row>
     <row r="292" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A292" s="3">
         <v>291</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B292" s="8"/>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
       <c r="E292" s="10"/>
@@ -9083,17 +7900,13 @@
       <c r="M292" s="10"/>
       <c r="N292" s="10"/>
       <c r="O292" s="13"/>
-      <c r="P292" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P292" s="9"/>
     </row>
     <row r="293" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A293" s="3">
         <v>292</v>
       </c>
-      <c r="B293" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B293" s="8"/>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
       <c r="E293" s="10"/>
@@ -9107,17 +7920,13 @@
       <c r="M293" s="10"/>
       <c r="N293" s="10"/>
       <c r="O293" s="13"/>
-      <c r="P293" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P293" s="9"/>
     </row>
     <row r="294" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A294" s="3">
         <v>293</v>
       </c>
-      <c r="B294" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B294" s="8"/>
       <c r="C294" s="10"/>
       <c r="D294" s="10"/>
       <c r="E294" s="10"/>
@@ -9131,17 +7940,13 @@
       <c r="M294" s="10"/>
       <c r="N294" s="10"/>
       <c r="O294" s="13"/>
-      <c r="P294" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P294" s="9"/>
     </row>
     <row r="295" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A295" s="3">
         <v>294</v>
       </c>
-      <c r="B295" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B295" s="8"/>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
       <c r="E295" s="10"/>
@@ -9157,17 +7962,13 @@
       <c r="M295" s="10"/>
       <c r="N295" s="10"/>
       <c r="O295" s="13"/>
-      <c r="P295" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P295" s="9"/>
     </row>
     <row r="296" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A296" s="3">
         <v>295</v>
       </c>
-      <c r="B296" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B296" s="8"/>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
       <c r="E296" s="10"/>
@@ -9181,17 +7982,13 @@
       <c r="M296" s="10"/>
       <c r="N296" s="10"/>
       <c r="O296" s="13"/>
-      <c r="P296" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P296" s="9"/>
     </row>
     <row r="297" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A297" s="3">
         <v>296</v>
       </c>
-      <c r="B297" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B297" s="8"/>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
       <c r="E297" s="10"/>
@@ -9205,17 +8002,13 @@
       <c r="M297" s="10"/>
       <c r="N297" s="10"/>
       <c r="O297" s="13"/>
-      <c r="P297" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P297" s="9"/>
     </row>
     <row r="298" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A298" s="3">
         <v>297</v>
       </c>
-      <c r="B298" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B298" s="8"/>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
       <c r="E298" s="10"/>
@@ -9229,16 +8022,14 @@
       <c r="M298" s="10"/>
       <c r="N298" s="10"/>
       <c r="O298" s="13"/>
-      <c r="P298" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="P298" s="9"/>
     </row>
     <row r="299" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A299" s="3">
         <v>298</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C299" s="10" t="s">
         <v>27</v>
@@ -9258,7 +8049,7 @@
         <v>28</v>
       </c>
       <c r="P299" s="9" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.45">
@@ -9287,7 +8078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17B7C6D-F884-49D0-95EC-9EF11122F208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
